--- a/data/hotels_by_city/Dallas/Dallas_shard_739.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_739.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1850 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r570142085-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>55922</t>
+  </si>
+  <si>
+    <t>107019</t>
+  </si>
+  <si>
+    <t>570142085</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Shower Very good.</t>
+  </si>
+  <si>
+    <t>They had a very good shower. It was a nice room. Clean. They accommodated our room request. Breakfast was okay. They had your usual breakfast items. The location was within walking distance to a Sonic and a gas station/convenience store was close by. Average room rate.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r568104178-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>568104178</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>I come in to town to put my dog down it was a nice stay...</t>
+  </si>
+  <si>
+    <t>I come in to town to put my dog down it was a nice stay you guys are just down the street form where I need to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r567733660-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>567733660</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Over priced</t>
+  </si>
+  <si>
+    <t>Spring break vacation.  Room was overpriced thought it would be a little nicer due to the $94 a night price or at least have a decent breakfast.  The breakfast may as well not of existited. Waffles and cereal. Property was clean it was a good location.  Room had a piece of carpet missing and our sheets had cigarette burns in them.  Internet was good though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r554835360-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>554835360</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Affordable, clean, comfortable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was in town for funeral. Last minute booking but was glad to have found this affordable, clean room. Had a comfortable night's rest. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r554832773-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>554832773</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>This super 8 is a great place to stay. close to food and shopping. I alway's stay here clean and friendly.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r552765520-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>552765520</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r542252580-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>542252580</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here in the past--- the rates were so high we stopped staying. Stayed last week on business---rates were reasonable again--room, staff all was good. Breakfast is fair amount of items. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r538693828-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>538693828</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Uncomfortable and unfinished</t>
+  </si>
+  <si>
+    <t>When pulling up we noticed pieces of the building posts with holes. Hotel looked moldy. Check in went smooth. Door was stuck when trying to enter room from recent paint. Room had not had time to ventilate so there was a strong paint smell. The walls and bathroom needed to t.l.c. but clean. Beds weren't very comfortable, pillows were bad, the toilet would run and squeal every 20 minutes and it sounded like people were drag raising outside all night.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r536093676-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>536093676</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>This was my favorite place to reside when visiting my...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my favorite place to reside when visiting my grandson because it was the ideal location for food, shopping, and meeting his mom until my last visit. For the last 3 years, I have stayed here but I’m sad to say I won’t be returning. The room had a roach problem and I don’t do roaches. I do not expose my children to the disease infested bugs at home and surely won’t pay to stay somewhere that has them as well. Everything else about the place met my expectation but the roaches is a no go. Sorry. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r535717820-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>535717820</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>The staff was terrible. I had to check in before I went to...</t>
+  </si>
+  <si>
+    <t>The staff was terrible. I had to check in before I went to work, the room wasn't ready, but they gave me a key and said that they would have it ready by the time I got off. I checked by phone TWO HOURS later, and it still wasn't ready, so I found another place and told the answering service that I wanted a refund. They offered me a raincheck and I declined it. They said no problem, and told me to see the management in person. When I got there, the manager was adamantly refusing to give me my money back, even though I had never entered the room. Terrible staff! I will tell as many people as I can from my job at general motors to AVOID this place like the plague!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was terrible. I had to check in before I went to work, the room wasn't ready, but they gave me a key and said that they would have it ready by the time I got off. I checked by phone TWO HOURS later, and it still wasn't ready, so I found another place and told the answering service that I wanted a refund. They offered me a raincheck and I declined it. They said no problem, and told me to see the management in person. When I got there, the manager was adamantly refusing to give me my money back, even though I had never entered the room. Terrible staff! I will tell as many people as I can from my job at general motors to AVOID this place like the plague!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r535169945-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>535169945</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>This was a business trip for me the room was very clean the...</t>
+  </si>
+  <si>
+    <t>This was a business trip for me the room was very clean the staff was very nice the location was everything cuz it was located where the food was where the shopping is and close to the freeway I will choose this hotel again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r534641772-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>534641772</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>The only problem i had was the smell. I have been in...</t>
+  </si>
+  <si>
+    <t>The only problem i had was the smell. I have been in numerous hotels and these smell like people have smoked in them and managment wont buy the right supplies to eliminate the smell. I own a janitorial company and that smell can be removed if the property owners paid the right price and stop being cheap.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r520793806-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>520793806</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>I was unable to check-in when I arrived because the...</t>
+  </si>
+  <si>
+    <t>I was unable to check-in when I arrived because the computer was down. Hotel desk attendant said I didn't have a reservation and tried to send me to a different location. I had to call customer service to get things moving and get checked in. Service was terrible. Attendant had her boyfriend hanging out in the lobby area most of the night (unprofessional). Room smelled bad. Smoke detector was my wake up alarm and it had no reason to go off. I've stayed at this location several times and this was the first time I had an issue, other than a couple years ago when a roach came crawling out of the bathroom area (yuk). MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I was unable to check-in when I arrived because the computer was down. Hotel desk attendant said I didn't have a reservation and tried to send me to a different location. I had to call customer service to get things moving and get checked in. Service was terrible. Attendant had her boyfriend hanging out in the lobby area most of the night (unprofessional). Room smelled bad. Smoke detector was my wake up alarm and it had no reason to go off. I've stayed at this location several times and this was the first time I had an issue, other than a couple years ago when a roach came crawling out of the bathroom area (yuk). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r520553382-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>520553382</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>A Bit Loud at Night</t>
+  </si>
+  <si>
+    <t>Average for the price.  Damaged carpet at room entrance, but over-all not bad.  There appears to be an extended-stay wing.  The pool area had loud music --and loud people until around 11pm on each of the nights we stayed.  If not for the noise, we would have stayed longer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r516466292-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>516466292</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>2 night stay</t>
+  </si>
+  <si>
+    <t>Decent place for a good price. Location is convenient to amenities. Be advised its right behind a couple fast food restaurants so relaxing by the pool (which is on the small side) isn't easy. Room was clean and good size. Our doors card reader died so we had some trouble getting in but Staff was very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r496874199-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>496874199</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Fair Overall</t>
+  </si>
+  <si>
+    <t>This is a really nice Super 8. I stay every time I'm coming through Grand Prairie. Normally I would give it a 4 or 5 but this time I had to move from room 102 because of bed bugs. I always stay in 119 or 152 and never a problem. Hope they get that room cleaned from bed bugs. I showed the manager where I was bitten so may times by the bugs and he didn't offer to discount or comp the next night. Very inconsidered!!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r493320630-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>493320630</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Texas Tour 2017</t>
+  </si>
+  <si>
+    <t>NIce place, we came to town for a Rangers game and wanted a convenient and not pricey hotel that would put us back on I-10 the next morning....This was perfect. Room was clean and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r491622724-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>491622724</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Just Sucked</t>
+  </si>
+  <si>
+    <t>Lights didnt work...came to change them and still didnt work....Jacuzzi was cracked and didnt work... Never once did they off discount off or another room. Never stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r485996265-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>485996265</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent Place to Stay!</t>
+  </si>
+  <si>
+    <t>The accommodations were good. I was disappointed with the WIFI. I have stayed here before and I did not have any problems. However, at my recent stay, I had problems. I did not call management to let them know because it was late and I left early the next day.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r481372568-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>481372568</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Bowling w/friends</t>
+  </si>
+  <si>
+    <t>In a very good location and easy to get into. Requested room on first floor due to problems with stairs, but none available. Will just have to make sure when booking to ask for first floor handicap room.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r479986308-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>479986308</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Nice-Expensive-maid service??</t>
+  </si>
+  <si>
+    <t>I have stayed here several times on business---however over the last 2 years the price has almost doubled---My stay last week was NICE--- however 1 day it was raining and we left our room later than usual---We asked the maid to come back after 30 minutes--- we returned mid afternoon and their had been NO ROOM SERVICE AT ALL !!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r478243148-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>478243148</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r477479411-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>477479411</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Fun trip</t>
+  </si>
+  <si>
+    <t>This hotel was very close too our meeting and the travel was fast and food was good in the neighborhood. Wal Mart was close and there was plenty of places to shop and buy food</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r476924536-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>476924536</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r468777267-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>468777267</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Friendly staff. Great place. Rooms clean and roomy. I usually tell my kids. Don"t touch that, don't sit on floor etc... Didn't feel needed to do that this time.  Great clean pool.  Close to shopping and restaurants. Drove across parking lot from hotel to all stores and restaurants without leaving same parking lot. That was a plus. Didn't have to deal with all the traffic.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r468679615-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>468679615</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Quality with Value</t>
+  </si>
+  <si>
+    <t>My mother and I spent 7 days here while visiting family. The handicapped room work very well for us. The housekeeping staff did a wonderful job everyday. The value we received for our room was excellent. My only complaint was the breakfast. I wish there was more variety, since we are there every morning. I will definitely stay again for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r466081146-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>466081146</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Dallas trip</t>
+  </si>
+  <si>
+    <t>Overall this hotel was clean, friendly people had food close to the hotel, since we were in a big rig, we had. To walk to get food, which worked out perfectly. The breakfast was just ok.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r461016191-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>461016191</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Nasty and rude</t>
+  </si>
+  <si>
+    <t>We arrived on the 13 of febuary this year. Me and my fiance got there jucuzzi suite. Came all the way from oklahoma to get there and as soon as we get in our room the lobby calls and says: did i just see a dog go into that room, uhhh yes we reserved her when we got the room then all she says is thats 15 a night. So im pretty made that i got quoted wrong got into the room to relax and the remote had no back to it, there was a wierd smell and we just ingnored it. That night we tried to use the jucuzzi( wouldnt work) they had to flip the breaker. Second night same thing except it looked like mold was coming out of the drain and looked disgusting room smelt worse after. Also we didnt have internet for half of the first night had to call tech. Will not be back! Very  dissatisfied   MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We arrived on the 13 of febuary this year. Me and my fiance got there jucuzzi suite. Came all the way from oklahoma to get there and as soon as we get in our room the lobby calls and says: did i just see a dog go into that room, uhhh yes we reserved her when we got the room then all she says is thats 15 a night. So im pretty made that i got quoted wrong got into the room to relax and the remote had no back to it, there was a wierd smell and we just ingnored it. That night we tried to use the jucuzzi( wouldnt work) they had to flip the breaker. Second night same thing except it looked like mold was coming out of the drain and looked disgusting room smelt worse after. Also we didnt have internet for half of the first night had to call tech. Will not be back! Very  dissatisfied   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r459184336-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>459184336</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great For Stay &amp; Go</t>
+  </si>
+  <si>
+    <t>Very reasonably priced, clean room.  Not luxurious, but I didn't pay the price a luxurious room would command.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r458189677-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>458189677</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>The cost was a bit pricey. I could not connect to Internet even with code. I call the office they told me to keep trying the purpose was to get away and study and complete my school work, but I was able to. The breakfast sucked the batter for waffles was to thin. At 7am there were no selection for breakfast just thin batter mix and a apple smh though I would be able to eat breakfast before work and do homework but NO I wasn't able to either one. I rate my visit a 5.  Oh and my room smelled like a weed field a non smoking room. I don't smoke pot nor cigarettes. With respiratory issue it was challenging but I made it. Thank GodMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>The cost was a bit pricey. I could not connect to Internet even with code. I call the office they told me to keep trying the purpose was to get away and study and complete my school work, but I was able to. The breakfast sucked the batter for waffles was to thin. At 7am there were no selection for breakfast just thin batter mix and a apple smh though I would be able to eat breakfast before work and do homework but NO I wasn't able to either one. I rate my visit a 5.  Oh and my room smelled like a weed field a non smoking room. I don't smoke pot nor cigarettes. With respiratory issue it was challenging but I made it. Thank GodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r451036728-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>451036728</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Smoke free - not so much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was given a smoke-free room and when we opened the door the smoke smell hit us right in the face. It was so strong that got in our clothes and we could smell it on us as we went to dinner and it even lingered in our car. Either someone had smoked in our room prior or it is a remnant of a once smoking room. Just slapping a smoke free label on a room that was once smoking does not make it odorless. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r449915660-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>449915660</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>My stay at Super 8</t>
+  </si>
+  <si>
+    <t>the lady at the front desk was very polite, room was spacious and clean. The only downside to me was that you can't see the flat screen TV from the desk where I was doing work on my computer. Flat screen was mounted to the wall and could not be turned so I could see it while working. :(</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r446747520-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>446747520</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Lacking in customer service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approx 3 hrs from destination (&amp; after 12 hr. driving), we received a call saying they didn't have a pack &amp; play for our 19 mon old. We only got an "I'm sorry". I said I didn't know what we could do to "corral" the little one for bedtime &amp; asked if they could get one from an affiliate or had any suggestions for what we could do, ie extra cushions, etc. Nope, even refused to give us a financial break, because we were paying "with points". The only redeeming factor was the kind woman who checked us in and personally had found extra bedding for us to use. </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r432623917-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>432623917</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>thieves and liars</t>
+  </si>
+  <si>
+    <t>I called and asked if I could reserve the room with my card and my boyfriend pay when we got there. The female on the phone assured me this was fine. Got to the hotel at 3 in the morning.  My boyfriend paid. Slept a few hours. Woke up up to find the hotel had the $508.43 on hold on my card!  I had to call my bank, who thank goodness is a credit union, so they know me! They had to speak to an employee and release my money. The coffee maker in the room didn't work. The female at the counter said she would check it after we left.  I told her that was what I expected from their service, a maid brought another maker, but no coffee. The maid asked if I wanted the room cleaned I said yes, she got an angry look on her face.  The safety bar in the bathtub was loose from the wall! The shower curtain is too small and doesn't reach all the way across. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I called and asked if I could reserve the room with my card and my boyfriend pay when we got there. The female on the phone assured me this was fine. Got to the hotel at 3 in the morning.  My boyfriend paid. Slept a few hours. Woke up up to find the hotel had the $508.43 on hold on my card!  I had to call my bank, who thank goodness is a credit union, so they know me! They had to speak to an employee and release my money. The coffee maker in the room didn't work. The female at the counter said she would check it after we left.  I told her that was what I expected from their service, a maid brought another maker, but no coffee. The maid asked if I wanted the room cleaned I said yes, she got an angry look on her face.  The safety bar in the bathtub was loose from the wall! The shower curtain is too small and doesn't reach all the way across. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r425121227-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>425121227</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stay there twice a week I have never been disappointed in cleanliness, staff, or ease of access </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r419470504-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>419470504</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Clean room, good price</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip and was very pleased. It was convenient to the interstate and to restaurants, the room was clean and the staff was friendly and accommodating. I got in late evening and walked across the street to a Sonic for a quick dinner. They did have a breakfast in the hotel that was fair. The desk staff let me use their computer to print out an important document I needed and couldn't get my computer to pull the document up. I really appreciated the kindness of them allowing me to do that. I will certainly stay there again should my travels take me through Ft. Worth again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip and was very pleased. It was convenient to the interstate and to restaurants, the room was clean and the staff was friendly and accommodating. I got in late evening and walked across the street to a Sonic for a quick dinner. They did have a breakfast in the hotel that was fair. The desk staff let me use their computer to print out an important document I needed and couldn't get my computer to pull the document up. I really appreciated the kindness of them allowing me to do that. I will certainly stay there again should my travels take me through Ft. Worth again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r406187764-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>406187764</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Not satisfied</t>
+  </si>
+  <si>
+    <t>Box spring was broke ice machine broke pool was nasty and smelled of urine. Plus mold in corner of bathtub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r404675942-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>404675942</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Okay stay</t>
+  </si>
+  <si>
+    <t>The hotel was a good hotel for couples to go and stay but maybe be a little cautionary taking kids. We had my son on this trip and he was fine but our neighbors next door were up all night yelling, screaming and cussing up a storm. I called the front desk and they took care of the situation temporarily. A few more hours later we heard them back at it. It didn't help that the walls were thin and the door wasn't fully sealed at the bottom. Other than that the hotel wasn't too bad. The breakfast was okay, no hot food was served. It was just your typical cereal, oatmeal, and waffle breakfast. I would stay here again if it was just my husband and I. With little ones I would reconsider and try to find a little better hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The hotel was a good hotel for couples to go and stay but maybe be a little cautionary taking kids. We had my son on this trip and he was fine but our neighbors next door were up all night yelling, screaming and cussing up a storm. I called the front desk and they took care of the situation temporarily. A few more hours later we heard them back at it. It didn't help that the walls were thin and the door wasn't fully sealed at the bottom. Other than that the hotel wasn't too bad. The breakfast was okay, no hot food was served. It was just your typical cereal, oatmeal, and waffle breakfast. I would stay here again if it was just my husband and I. With little ones I would reconsider and try to find a little better hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r401461029-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>401461029</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms for the money - 15 Minutes From Ballparks</t>
+  </si>
+  <si>
+    <t>A very clean hotel with nice staff.  The lady working the desk at night (Ana) was especially helpful.  Good breakfast with cereal, toast, waffles, fruit, pastries and juice.  The rooms were very clean and comfortable.  My only complaint about the room is the gap under the door was rather larger.  The hotel isn't in the greatest area of town, but we had no issues.  Also, the wifi was useless once people started getting on, but had brought our own so it wasn't too much of an issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r391551055-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>391551055</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>You pay what you get for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The person at the front desk was very friendly and our hotel room was decorated nice and modern. However, my boyfriend and I woke up around 2 AM itching like CRAZY. We couldn't find anything in the bed, but my boyfriend could feel little bumps on his skin. So we both ended up sleeping on the couch and that's when we found a cigarette in a non-smoking room. The pool was filthy so bad to the point to where we didn't even want to stick our feet in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r391516723-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>391516723</t>
+  </si>
+  <si>
+    <t>no air at homehot</t>
+  </si>
+  <si>
+    <t>room 119 had a big crack under the door as if the building had shifted. Scary... The next night I put a towel across the bottom of door.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r388552113-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>388552113</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r384062282-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>384062282</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>I have stayed there many time in the past for business---always getting 1 of 2 downstairs smoking rooms---- this time--the bed was terrible(big dipin middle of bed)--I asked housekeeping to flip.turn matress--wasnt done---- not all electrical outlets worked--had to make coffee in the morning on the floor--near the TV--- I usually purchase 2-3 rooms for employees---At check-in I was told 1st night for both rooms(on a tuesday)would be higher cost because of car club staying there ???????????   WONT STAY THERE AGAIN !!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r374477273-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>374477273</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Door lock and small pillows.</t>
+  </si>
+  <si>
+    <t>The inside slide door lock screws were loose and door could be forced opened. very small pillows for a queen size bed.The room was clean however.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r370940190-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>370940190</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r357852388-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>357852388</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r357359755-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>357359755</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Grand Prairie visit</t>
+  </si>
+  <si>
+    <t>Tried to make waffles. Machine came apart while I was using it. Front desk girl did not offer to help clean mess and said it could be left for cleaning people to handle when they got in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r355157900-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>355157900</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and Safe Property</t>
+  </si>
+  <si>
+    <t>This Super 8 has been recently updated so the rooms look very clean inside with huge pictures painted on the wall of local attractions.  It is in a very safe and high traffic area.  I used to have a home a couple miles away from this hotel for over 10 years and know the area very well. It is a very nice and safe area.  It is much better than staying near Six Flags or the stadium as the hotel guests are not noisy here. It has Sonic on the back side, Vroom huge car lot full of really nice almost new vehicles.. it's like CarMax. There's a Burger King across the street and a Sams and Walmart Supercenter just a block away.  Both the lady that checked us in on a Saturday night and the lady that checked us out on Sunday morning were very friendly and smiling. Unexpected plus for church goers, they convert the breakfast room into a worship center on Sun morning around 10am.My wife and I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Super 8 has been recently updated so the rooms look very clean inside with huge pictures painted on the wall of local attractions.  It is in a very safe and high traffic area.  I used to have a home a couple miles away from this hotel for over 10 years and know the area very well. It is a very nice and safe area.  It is much better than staying near Six Flags or the stadium as the hotel guests are not noisy here. It has Sonic on the back side, Vroom huge car lot full of really nice almost new vehicles.. it's like CarMax. There's a Burger King across the street and a Sams and Walmart Supercenter just a block away.  Both the lady that checked us in on a Saturday night and the lady that checked us out on Sunday morning were very friendly and smiling. Unexpected plus for church goers, they convert the breakfast room into a worship center on Sun morning around 10am.My wife and I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r333597493-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>333597493</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Stay in Grand Prairie</t>
+  </si>
+  <si>
+    <t>Good value for the money. Convenient to interstate 20 a Wal-Mart, Walgreen, and several popular restaurants.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r333106483-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>333106483</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>I can always get a room</t>
+  </si>
+  <si>
+    <t>Great staff, rooms are clean and I can always get a room. They need to keep up with maintenance as things are a bit shabby and there are sometimes crickets as well as rowdys in the parking lot late on the weekends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r328459661-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>328459661</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service and great hotel, but the location was crappy. It's somewhat inaccessible. But other than that, 4 out of 5. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r325506914-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>325506914</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Nice clean room</t>
+  </si>
+  <si>
+    <t>Great price!!! Our room was clean &amp; up-to-date. We felt like we were in a very safe location. Our room was quiet...no loud noises from traffic or other rooms. You can walk across parking lot to Sonic or Arby's. We made several trips to Sonic for drinks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r322781439-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>322781439</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Weekend stay at Grand Prairie Texas</t>
+  </si>
+  <si>
+    <t>The person checking me in was really nice and made feel welcome. The beds were great. The rooms were very clean and really liked the decor. Breakfast was a bit of a disappointment. Only one waffle maker and there was a line. Not much else worth staying for so I got a coffee and left. The stairs outside are slippery when wet(it has rained) so be careful. I almost fell but held on to the rail. I told the front desk to another young lady there but I check later and the puddles were still there. Perhaps some anti slip strips can help. Overall the stay was good and I will be staying there again. Price was great for the value. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The person checking me in was really nice and made feel welcome. The beds were great. The rooms were very clean and really liked the decor. Breakfast was a bit of a disappointment. Only one waffle maker and there was a line. Not much else worth staying for so I got a coffee and left. The stairs outside are slippery when wet(it has rained) so be careful. I almost fell but held on to the rail. I told the front desk to another young lady there but I check later and the puddles were still there. Perhaps some anti slip strips can help. Overall the stay was good and I will be staying there again. Price was great for the value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r320736944-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>320736944</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>girls getaway</t>
+  </si>
+  <si>
+    <t>My friend and I stay there for our girls getaway! It is located in the perfect spot for easy access to most of DFW. The rooms are updated..my only complaint is that the cable proivdes very little channel but I guess most people arent in the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r318824483-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>318824483</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Better than expected!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed one night here... it was better than the Howard Johnson I WAS staying at, but also about $40 more per night. That said, the room was clean, the decor was modern, and fully equipped with all the amenities.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r318744171-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>318744171</t>
+  </si>
+  <si>
+    <t>poor everthing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was terrible Where do I began, the mattress was lumpy,like going down a heel,they only had half pillows,like a throw pillow,the air condition was so noisy that you almost wanted to suffer the heat just to keep it turned off When asked about another room, none was available, and did I mention the internet not working Will not stay here again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r317128131-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>317128131</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>The carpet turned our feet and socks black, Maid service...</t>
+  </si>
+  <si>
+    <t>The carpet turned our feet and socks black, Maid service appeared to be by request, We had to take towels to the office and ask for clean ones, we had to ask at the office for toilet paper and Kleenex.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r307628693-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>307628693</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>This was a convenient and clean hotel to our family while on vacation. Friendly staff and very helpful. The only problem we encountered was the room door was loose and had trouble unlocking it with the room key. Finally learned how to maneuver it.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r306067372-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>306067372</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Customer Service Sucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started off horrible and ended horrible. Thanks for a great 1 year anniversary experience with my husband.....not. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r301657635-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>301657635</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>EXCELLENT STAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was great. Staff was excellent. Maid service was great. Would highly recommend this place. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r293004459-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>293004459</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location was great for the price. I will definitely be staying here again. staff was great as well. little disappointed in the breakfast selection but not a deal breaker to stay again.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r292788695-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>292788695</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>I usually have no issues but this time it was roaches every where called and they changed rooms but never offered a discount or free night just said they switched pest control companys</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r286264867-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>286264867</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>The hotel was a good location,  but one night I had random...</t>
+  </si>
+  <si>
+    <t>The hotel was a good location,  but one night I had random guests knocking on my door all night long.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r280628978-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>280628978</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>WORSE COSTUMER SERVICE</t>
+  </si>
+  <si>
+    <t>Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were...Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were oblivious of. The manager, Yogi, was very rude, kept cutting me off while I tried to explain the situation and refused to work with me or even listen to what I had to say.  She insisted that it was a mistake on our end and that she would not refund any part of the money.  We thought that since one night was already paid for, she could refund half of the reservation for the night of June 12th and 13th, nothing worked, she would not reason and emphasized that she was the highest authority there and her husband was the other manager.  I will NEVER come back to this location and I will be contacting the franchise manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were...Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were oblivious of. The manager, Yogi, was very rude, kept cutting me off while I tried to explain the situation and refused to work with me or even listen to what I had to say.  She insisted that it was a mistake on our end and that she would not refund any part of the money.  We thought that since one night was already paid for, she could refund half of the reservation for the night of June 12th and 13th, nothing worked, she would not reason and emphasized that she was the highest authority there and her husband was the other manager.  I will NEVER come back to this location and I will be contacting the franchise manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r279801240-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>279801240</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Stay at Super 8</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 was okay. The room and lobby were clean. The pool was kept up nice. There were just a few issues we ran into.
+The staff could be pretty rude sometimes. We ran into an issue with the wifi, it wasn't working for us so we called the front desk. Instead of explaining the situation the woman snapped back "I know the wifi isn't working." I understand she probably got a lot of calls that day if it wasn't working for everyone, but we were not aware of the problem. We did not appreciate her snappy tone.
+There was some construction going on during our stay, and I guess they had to turn off the water. No one ever warned us about the water being turned off. Again, we called the office to see what happened and we were met with the same snappy "I know the water is off. It should be on again soon." We were left for almost the rest of the day without water. We couldn't shower, use the bathroom, or brush our teeth until late in the evening.
+One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same...My stay at Super 8 was okay. The room and lobby were clean. The pool was kept up nice. There were just a few issues we ran into.The staff could be pretty rude sometimes. We ran into an issue with the wifi, it wasn't working for us so we called the front desk. Instead of explaining the situation the woman snapped back "I know the wifi isn't working." I understand she probably got a lot of calls that day if it wasn't working for everyone, but we were not aware of the problem. We did not appreciate her snappy tone.There was some construction going on during our stay, and I guess they had to turn off the water. No one ever warned us about the water being turned off. Again, we called the office to see what happened and we were met with the same snappy "I know the water is off. It should be on again soon." We were left for almost the rest of the day without water. We couldn't shower, use the bathroom, or brush our teeth until late in the evening. One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same snappy tone asked us "So is there anything you need or what." I work in customer service and I know that is not the way you speak to a guest at your establishment. I would have appreciated it if she greeted us with a smile or politely asked if we needed help with anything. Our stay was okay, and we would be very understanding about the issues we ran into if it was handled better. If we were warned about the water issues so we could have showered before and if the women working at the desk were a little more polite I would probably recommend staying at the Super 8 again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at Super 8 was okay. The room and lobby were clean. The pool was kept up nice. There were just a few issues we ran into.
+The staff could be pretty rude sometimes. We ran into an issue with the wifi, it wasn't working for us so we called the front desk. Instead of explaining the situation the woman snapped back "I know the wifi isn't working." I understand she probably got a lot of calls that day if it wasn't working for everyone, but we were not aware of the problem. We did not appreciate her snappy tone.
+There was some construction going on during our stay, and I guess they had to turn off the water. No one ever warned us about the water being turned off. Again, we called the office to see what happened and we were met with the same snappy "I know the water is off. It should be on again soon." We were left for almost the rest of the day without water. We couldn't shower, use the bathroom, or brush our teeth until late in the evening.
+One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same...My stay at Super 8 was okay. The room and lobby were clean. The pool was kept up nice. There were just a few issues we ran into.The staff could be pretty rude sometimes. We ran into an issue with the wifi, it wasn't working for us so we called the front desk. Instead of explaining the situation the woman snapped back "I know the wifi isn't working." I understand she probably got a lot of calls that day if it wasn't working for everyone, but we were not aware of the problem. We did not appreciate her snappy tone.There was some construction going on during our stay, and I guess they had to turn off the water. No one ever warned us about the water being turned off. Again, we called the office to see what happened and we were met with the same snappy "I know the water is off. It should be on again soon." We were left for almost the rest of the day without water. We couldn't shower, use the bathroom, or brush our teeth until late in the evening. One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same snappy tone asked us "So is there anything you need or what." I work in customer service and I know that is not the way you speak to a guest at your establishment. I would have appreciated it if she greeted us with a smile or politely asked if we needed help with anything. Our stay was okay, and we would be very understanding about the issues we ran into if it was handled better. If we were warned about the water issues so we could have showered before and if the women working at the desk were a little more polite I would probably recommend staying at the Super 8 again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r279643089-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>279643089</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>VACATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water was off in my room for at check in for about  4 hours or more and we were not offered a discounted rate for situation we were  put under for staying at this hotel this was terrible experience. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r277684089-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>277684089</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Won't stay again.....</t>
+  </si>
+  <si>
+    <t>Beds were hard as a rock, the breakfast was beyond small we still felt hungry so had to go out to eat.. ,Internet would not work in the room, key card stopped working entire trip, toilet overflow as soon as we got there. Pool had no chlorine, hair dryer did not work, shower head was messed up, hardly any hot water while taken a shower... Was not worth the amount I payed..........</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r268921155-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>268921155</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was great. Internet was very bad. What happen? Been there many times. Was very good before.  </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r261268552-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>261268552</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Overall the stay was good. I went to breakfast late and there was nothing left to eat. Otherwise my stay was good.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r250706186-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>250706186</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>The room was really clean. Looked clean and smelled clean. We stayed three days with minimal room service-no need to change sheets daily. Each time we entered the room it smelled clean...all three days. I am astounded! Kudos to Super 8 housekeeping!! The room was in great shape also. Nothing worn out or outdated. Had a microwave and fridge. Nice simple breakfast with waffles! juice, coffee, cereal, oatmeal, sweet rolls with fruity centers and apples. Plenty to start your day. The staff was friendly and super helpful. This was my first winter stay at a motel, and may I say the heating worked well! we were toasty all weekend. Also, this motel is right across the interstate from Paragon Outlet mall and a skip away from Traders Village. the motel parking lot adjoins with a sonic drive in and an arbys.  I am sure I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>The room was really clean. Looked clean and smelled clean. We stayed three days with minimal room service-no need to change sheets daily. Each time we entered the room it smelled clean...all three days. I am astounded! Kudos to Super 8 housekeeping!! The room was in great shape also. Nothing worn out or outdated. Had a microwave and fridge. Nice simple breakfast with waffles! juice, coffee, cereal, oatmeal, sweet rolls with fruity centers and apples. Plenty to start your day. The staff was friendly and super helpful. This was my first winter stay at a motel, and may I say the heating worked well! we were toasty all weekend. Also, this motel is right across the interstate from Paragon Outlet mall and a skip away from Traders Village. the motel parking lot adjoins with a sonic drive in and an arbys.  I am sure I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r247461668-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>247461668</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was decent and room was comfortable. Make sure you double check your reservation. Made a reservation had the number etc. Called the hotel due to running later then expected and they cancelled our reservation for some unknow reason. No one could tell me why. They did still have a room and honored our price  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r239517480-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>239517480</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>we were in Texas for a family visit and stayed at Super 8 Grand Prairie, which is just a right decision we made that night. Its easy to find &amp; easy access from the free way and just about what 1 family needs after a long day. The staff was very cooperative n helpful to us. The rooms were way too nice &amp; clean which made us feel like home. The beds were very comfy &amp; slept peacefully. Had a fresh morning with their gourmet coffee n breakfast. Will definetly recommend to all who is looking to stay in that area to take an experience of warm welcome n friendly staff &amp; peaceful stay...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>we were in Texas for a family visit and stayed at Super 8 Grand Prairie, which is just a right decision we made that night. Its easy to find &amp; easy access from the free way and just about what 1 family needs after a long day. The staff was very cooperative n helpful to us. The rooms were way too nice &amp; clean which made us feel like home. The beds were very comfy &amp; slept peacefully. Had a fresh morning with their gourmet coffee n breakfast. Will definetly recommend to all who is looking to stay in that area to take an experience of warm welcome n friendly staff &amp; peaceful stay...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r223658974-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>223658974</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>Our recent stay at Super 8 wasn't too bad. The room/bathroom was very clean and pleasant. The only thing we were a little disappointed in was the wifi &amp; cable. The reception on both was really bad. It was super close to where we were visiting, so we'll most likely be back.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r217026534-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>217026534</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>It would be good for just one night but would not want to stay there for more than one or two nights. It is convenient to restaurants.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r217026000-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>217026000</t>
+  </si>
+  <si>
+    <t>Softball Stay</t>
+  </si>
+  <si>
+    <t>A bit noisy due to location.  Sunday morning breakfast was packed at 9 a.m.  Poor guy had heck trying to keep up with everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r206401185-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>206401185</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Excellence</t>
+  </si>
+  <si>
+    <t>Great service, great room very clean and comfortable and front desk was friendly, quick and helpful.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r201922412-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>201922412</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a last minute find. The room was clean, bed comfortable. FD Staff excellent at check-in. The FD clerk at check out was very blasé no personality Was checked out @ 10:30am and missed breakfast. Yes I would stay again and recommend to Business Associates. ! </t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r199696897-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>199696897</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>Moving Trip</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was close to where I was moving from I had stayed at this hotel in the past and it is clean and comfortable. My only complaint was that the handle on my door was loose and it was hard to get open.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r198432789-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>198432789</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to repair bathroom wall instead of using tape. Chair needs to be replaced in room and a bath chair instead of a yard chair for the shower. Also the maids need to clean the walls in the bathroom better. The hot water was not hot just lukewarm in the shower and pressure was not very good </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r196912753-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>196912753</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>health trip</t>
+  </si>
+  <si>
+    <t>My reservation shows up over an hour after I am there. I am not pleased with the internet system that you have for your reservations. The lady that waited on me was very nice and assisted me with another reservation and then had to cancel the one that came in after I was already settled into my room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r191065522-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>191065522</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was nice. The staff was very friendly &amp; helpful. We had a great stay!    </t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r188579320-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>188579320</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Not good enough</t>
+  </si>
+  <si>
+    <t>I can't speak to value for your dollar since I used points to pay, but I certainly didn't think it was worth the point value Wyndham has ascribed to this. It was relatively clean, but very close to the interstate so it was loud (lots of sirens this night). I booked a pet-friendly room but once again, they told me at the desk that that didn't apply to cats. I think it is horrible customer service for hotels to not make note of this on their website. I book primarily based on where my pet can stay, how does it help a hotel to not make this information very explicit? The bed was kinda lumpy and the internet didn't work.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I can't speak to value for your dollar since I used points to pay, but I certainly didn't think it was worth the point value Wyndham has ascribed to this. It was relatively clean, but very close to the interstate so it was loud (lots of sirens this night). I booked a pet-friendly room but once again, they told me at the desk that that didn't apply to cats. I think it is horrible customer service for hotels to not make note of this on their website. I book primarily based on where my pet can stay, how does it help a hotel to not make this information very explicit? The bed was kinda lumpy and the internet didn't work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r188467103-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>188467103</t>
+  </si>
+  <si>
+    <t>12/24/2013</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RReserved a smoking room and when I got there git issued a non smoking room. Friends only paid 107.00 and I had to pay 125.00 a night. Called 800 number and complained and was told I would get a phone call as of today no phone call. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r186748247-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>186748247</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms even smelled clean! The hotel seems to take no-smoking rooms seriously. The hotel is in close proximity to our destination, Trader's Village. Shopping and restaurants are conveniently located. </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r183668884-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>183668884</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>It was nasty had me itching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed bugs ,mold in the coffee pot ,bed sheets had me itching and I got bed bug bites wing worms and a rash </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r181276039-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>181276039</t>
+  </si>
+  <si>
+    <t>10/16/2013</t>
+  </si>
+  <si>
+    <t>Skunky Room</t>
+  </si>
+  <si>
+    <t>Room smelled like a skunk. Old rose petals behind the door, jacuzzi tub did not look clean. Regular bathroom was clean, but when you took your shoes off the carpet was sort of sticky. Called night desk and they brought Glade air freshner, but said they probably wouldn't do anything to discount the room even though there were no other rooms available. The remote control for the television had nothing but tape holding the batteries in so sometimes the remote worked and sometimes it didn't. There were old rose petals behind the door where it was not vaccuumed. Upholstery on chairs in room did not look so clean. The morning desk clerk gave us 20.00 off the room for the skunky smell. The morning clerk was nice, but the room experience was not pleasant and I felt like more could have been done to make it a more pleasurable stay and to compensate for the funky room. Not impressed. Only stayed here because we had no other options, but they definitely did not win my future business.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Room smelled like a skunk. Old rose petals behind the door, jacuzzi tub did not look clean. Regular bathroom was clean, but when you took your shoes off the carpet was sort of sticky. Called night desk and they brought Glade air freshner, but said they probably wouldn't do anything to discount the room even though there were no other rooms available. The remote control for the television had nothing but tape holding the batteries in so sometimes the remote worked and sometimes it didn't. There were old rose petals behind the door where it was not vaccuumed. Upholstery on chairs in room did not look so clean. The morning desk clerk gave us 20.00 off the room for the skunky smell. The morning clerk was nice, but the room experience was not pleasant and I felt like more could have been done to make it a more pleasurable stay and to compensate for the funky room. Not impressed. Only stayed here because we had no other options, but they definitely did not win my future business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r181186569-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>181186569</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Grand Prairie Stay</t>
+  </si>
+  <si>
+    <t>Pleasant staff - even allowed me to check in a few minutes early. Great location with plenty of eating establishments nearby. The room was clean but a slight smell of bug spray was noticable. Can't say anything about the breakfast as I did not eat there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r177522826-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>177522826</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Minor Problems, but Cheap Stay</t>
+  </si>
+  <si>
+    <t>A/c was noisy and made dosconcerting "klunks" all night, and the room was a tiny bit musty-smelling. The desk clerk was good and efficient, and everything else was good for the price. The hotel could use some updating in the furniture department. The big-screen TV was excellent. breakfast was OK, nothing special.I do wish they would not allow the illegal alien laborers to sit on the steps outside and drink beer. Kinda noisy. Overall, a cheap stay was what I wanted, and that's what I got.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r176392091-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>176392091</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Clean and easy access to shopping</t>
+  </si>
+  <si>
+    <t>The hotel was clean, do ask  for a room away from the highway. Front desk clerk was friendly enough helpful with short cuts around town. Easy access from highway 20. traders village is just up the road. The cowboys stadium is about 20 to 30 minutes away depending on traffic. And a few of good restaurants around. Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r176240378-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>176240378</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Room appeared neat and clean. However, bathroom was NOT...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room appeared neat and clean. However, bathroom was NOT. Floor had not been swept. Dead cricket under sink. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r170138494-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>170138494</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>The Worst</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed in. The room was dirty and musty, which they tried to cover up with a heinous deodorizer. The hotel staff were rude and unprofessional, and the free breakfast wasn't anything to write home about. I am not a picky person who has to have 5 star accommodations. Believe me when I say you do not want to stay at this hotel !!!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r168114899-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>168114899</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Big patch of mold</t>
+  </si>
+  <si>
+    <t>I wasn't expecting the Ritz Carlton. But I was expecting at least someplace "clean". I would have left as soon as I saw the huge patch of mold (on the ceiling directly above the commode), but I was literally too tired and wore out. But it wasn't easy to get into the bed knowing that they were willing to rent a room that had a huge (14"+ diameter) patch of obvious mold in the ceiling. When I cut short my reservation the next morning (and checked-out 3 days early) they still charged me for the one-night stay. They shouldn't rent rooms that have such a huge, obvious problem like that - mold makes a lot of people sick - more importantly it damages the entire brand. There was NO WAY that they didn't know "that" was there (before they rented the room to me).MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't expecting the Ritz Carlton. But I was expecting at least someplace "clean". I would have left as soon as I saw the huge patch of mold (on the ceiling directly above the commode), but I was literally too tired and wore out. But it wasn't easy to get into the bed knowing that they were willing to rent a room that had a huge (14"+ diameter) patch of obvious mold in the ceiling. When I cut short my reservation the next morning (and checked-out 3 days early) they still charged me for the one-night stay. They shouldn't rent rooms that have such a huge, obvious problem like that - mold makes a lot of people sick - more importantly it damages the entire brand. There was NO WAY that they didn't know "that" was there (before they rented the room to me).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r166962194-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>166962194</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>We did not stay here.  They gave our room away and we ended...</t>
+  </si>
+  <si>
+    <t>We did not stay here.  They gave our room away and we ended up at another hotel.  Due to the lack of communication about check in policies the motel was nice enough to refund our money.  We will not be returning to this location ever again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r163275330-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>163275330</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Unsatified</t>
+  </si>
+  <si>
+    <t>My door lock was broken, my door hing was broken. Door got jammed hard to open, and close. I didn't want my room cleaned they entered.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r162410613-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>162410613</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>I was ok, it just had a musty small in the room, but clean.</t>
+  </si>
+  <si>
+    <t>It was a nice room , but it just had a musty smell to it , I would put a Scentsy Wickless Candles in there. And I sale them. Just call me. thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r160786589-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>160786589</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your hotel room was very accommodating for a senior citizen with a handicap walker, the bathroom was excellent although I did have to buy a more stable tub mat it was very accommodating for my walker. The Texas waffles and the continental breakfast was very good. The front desk service was just what we needed expecially since another hotel didn't want to accept our cash even though we had a reservation. Thank you Super 8 for being there when we needed you the most, a crown you most definitely deserve. Keep up the wonderful work that you are doing and have a great day. </t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r149216097-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>149216097</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>The reception was very good as the lady seems to know her job; Well situated near all services including shopping center, car wash, restaurants. We did not experience their breakfast included as we had to leave early. We would definitely go back if the occasion occurs. I would say that for a Super 8, they are above-average.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r147695696-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>147695696</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Horrific Hotel Infested</t>
+  </si>
+  <si>
+    <t>My 2 kids and I stayed this past weekend on 12/15/12-12/16/12...omg it was the worst place ever. When we got there the rooms looked decent, but at night when we were about to go to bed , as i pull off the blankets Omg...cockroaches and their babies...not 1 or even 2 ,,,im talking about more then 20,,it was disgusting ..i called the front desk and they didnt even care ,, they said they didnt have any other rooms and there was nothing much they can do about it, due to manager was not working at that time...the worst night ever, i didnt sleep all night, i was taking care of my kids , making sure they didnt have any cockroaches on them during the night. next morning , i told the office manager and she just said , Oh im so sorry , and still charged me in full and bad customer service...I Dont recommend it at allMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My 2 kids and I stayed this past weekend on 12/15/12-12/16/12...omg it was the worst place ever. When we got there the rooms looked decent, but at night when we were about to go to bed , as i pull off the blankets Omg...cockroaches and their babies...not 1 or even 2 ,,,im talking about more then 20,,it was disgusting ..i called the front desk and they didnt even care ,, they said they didnt have any other rooms and there was nothing much they can do about it, due to manager was not working at that time...the worst night ever, i didnt sleep all night, i was taking care of my kids , making sure they didnt have any cockroaches on them during the night. next morning , i told the office manager and she just said , Oh im so sorry , and still charged me in full and bad customer service...I Dont recommend it at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r144344277-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>144344277</t>
+  </si>
+  <si>
+    <t>11/02/2012</t>
+  </si>
+  <si>
+    <t>Not the best but it did the job!!</t>
+  </si>
+  <si>
+    <t>The first room we got on the first night had a jacuzzi for $30 more. We took it so we can have a relaxation but the room was hideuos and old school look. I found ants all over the tile and the knob for the jacuzzi fell off so the water ran and scared me cause I couldnt stop it. Thank fully my husband was able to fix it. The second night the room was ok. It was much better than the first room. It did the job we went for a Dallas Cowboys game and it was very close. So we were very please with that. Overall it was ok it did the job.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>The first room we got on the first night had a jacuzzi for $30 more. We took it so we can have a relaxation but the room was hideuos and old school look. I found ants all over the tile and the knob for the jacuzzi fell off so the water ran and scared me cause I couldnt stop it. Thank fully my husband was able to fix it. The second night the room was ok. It was much better than the first room. It did the job we went for a Dallas Cowboys game and it was very close. So we were very please with that. Overall it was ok it did the job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r142508983-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>142508983</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>All was good price was ok we would use you again and we would tell people about your good service. Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r132299141-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>132299141</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Good location but that's it</t>
+  </si>
+  <si>
+    <t>rooms not very clean and poorly maintained. Good location but would not stay there again.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r126205448-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>126205448</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Great budget hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a good hotel and clean, there was one thing I had a non smoking room,the restroom in my room did smell like smoke I did report it to the office and they told me the other side was a smoking unit and it was coming through the vent. The manager was very nice and offered me another room. The breakfast was ok could have been better. Over all a good place to stay and great location. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r112011174-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>112011174</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>Great staff and cleanliness, maintenance neede</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for three nights in June. The room was very clean and the staff was wonderful. The bed was comfortable and we slept very well. Maintenance was something else.  The bathroom tiles had cracks and the light flickered on and off. The night next to the bathroom also didnt work. A lamp in the room didnt work and was very wobbly. The WIFi didnt work at all. Definitly think there was some electrical issues going on this room. The pool was gross. It had a film and there was a lot of small debris in it. Even though there were some maintenance issues I really liked staying there because of the staff. Customer Service was Excellent!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for three nights in June. The room was very clean and the staff was wonderful. The bed was comfortable and we slept very well. Maintenance was something else.  The bathroom tiles had cracks and the light flickered on and off. The night next to the bathroom also didnt work. A lamp in the room didnt work and was very wobbly. The WIFi didnt work at all. Definitly think there was some electrical issues going on this room. The pool was gross. It had a film and there was a lot of small debris in it. Even though there were some maintenance issues I really liked staying there because of the staff. Customer Service was Excellent!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r109861670-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>109861670</t>
+  </si>
+  <si>
+    <t>05/25/2011</t>
+  </si>
+  <si>
+    <t>Better than I Imagined!</t>
+  </si>
+  <si>
+    <t>My husband and I were a little unsure about renting a room here, just because the price was so low ($67) but were just in town for one night to see a concert at the Verizon Theatre so we thought we'd try it - I'm glad we did! 
+The room was very spacious and immaculately clean. I inspect everything when I get a hotel room and there was no dirt anywhere! There was a small flat screen HDTV in the room, a refrigerator, microwave, a writing desk and a small living area with a coffee table and fold out sofa on the side of the room away from the bed. 
+We did not have a reservation, we just walked in and the very friendly woman at the front desk had us in our room in literally five minutes. The room was comparable to what we've paid $150 a night for in other places. If this is the Super 8 standard, we're going to be staying more often! The continental breakfast was good - hot coffee, cold juice and milk, cereal, danishes, bagels, and make your own Texas shaped waffles! 
+The hotel was right around the corner from the Texas Roadhouse, which was also a very good experience for us, and just a block or so away from a cinema 10. Easy access back to the highway, but far enough away we didn't have to worry about traffic. 
+All in all,...My husband and I were a little unsure about renting a room here, just because the price was so low ($67) but were just in town for one night to see a concert at the Verizon Theatre so we thought we'd try it - I'm glad we did! The room was very spacious and immaculately clean. I inspect everything when I get a hotel room and there was no dirt anywhere! There was a small flat screen HDTV in the room, a refrigerator, microwave, a writing desk and a small living area with a coffee table and fold out sofa on the side of the room away from the bed. We did not have a reservation, we just walked in and the very friendly woman at the front desk had us in our room in literally five minutes. The room was comparable to what we've paid $150 a night for in other places. If this is the Super 8 standard, we're going to be staying more often! The continental breakfast was good - hot coffee, cold juice and milk, cereal, danishes, bagels, and make your own Texas shaped waffles! The hotel was right around the corner from the Texas Roadhouse, which was also a very good experience for us, and just a block or so away from a cinema 10. Easy access back to the highway, but far enough away we didn't have to worry about traffic. All in all, we were more than satisfied, but the bed was not very comfortable. Both my husband and I had a hard time falling and staying asleep. The only other thing I can think of is that the handles on two of the drawers were broken off, and the caulking on the bath tub was a little worn out. But none of that detracted from the fact that I really liked this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>My husband and I were a little unsure about renting a room here, just because the price was so low ($67) but were just in town for one night to see a concert at the Verizon Theatre so we thought we'd try it - I'm glad we did! 
+The room was very spacious and immaculately clean. I inspect everything when I get a hotel room and there was no dirt anywhere! There was a small flat screen HDTV in the room, a refrigerator, microwave, a writing desk and a small living area with a coffee table and fold out sofa on the side of the room away from the bed. 
+We did not have a reservation, we just walked in and the very friendly woman at the front desk had us in our room in literally five minutes. The room was comparable to what we've paid $150 a night for in other places. If this is the Super 8 standard, we're going to be staying more often! The continental breakfast was good - hot coffee, cold juice and milk, cereal, danishes, bagels, and make your own Texas shaped waffles! 
+The hotel was right around the corner from the Texas Roadhouse, which was also a very good experience for us, and just a block or so away from a cinema 10. Easy access back to the highway, but far enough away we didn't have to worry about traffic. 
+All in all,...My husband and I were a little unsure about renting a room here, just because the price was so low ($67) but were just in town for one night to see a concert at the Verizon Theatre so we thought we'd try it - I'm glad we did! The room was very spacious and immaculately clean. I inspect everything when I get a hotel room and there was no dirt anywhere! There was a small flat screen HDTV in the room, a refrigerator, microwave, a writing desk and a small living area with a coffee table and fold out sofa on the side of the room away from the bed. We did not have a reservation, we just walked in and the very friendly woman at the front desk had us in our room in literally five minutes. The room was comparable to what we've paid $150 a night for in other places. If this is the Super 8 standard, we're going to be staying more often! The continental breakfast was good - hot coffee, cold juice and milk, cereal, danishes, bagels, and make your own Texas shaped waffles! The hotel was right around the corner from the Texas Roadhouse, which was also a very good experience for us, and just a block or so away from a cinema 10. Easy access back to the highway, but far enough away we didn't have to worry about traffic. All in all, we were more than satisfied, but the bed was not very comfortable. Both my husband and I had a hard time falling and staying asleep. The only other thing I can think of is that the handles on two of the drawers were broken off, and the caulking on the bath tub was a little worn out. But none of that detracted from the fact that I really liked this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r91043833-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>91043833</t>
+  </si>
+  <si>
+    <t>12/29/2010</t>
+  </si>
+  <si>
+    <t>Good, Room Excellent Service at Front Desk</t>
+  </si>
+  <si>
+    <t>I booked this room through Wyndham Rewards. I booked for the 29th of December but there was a mix up and the room was booked for the 25th.  The manager was very understanding as well as the front desk.  They took care of everyting and i received my room with no problem.  I stay in motels over 100 nights  year.  I would definately stay here again.  Good room, great service.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r66054340-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>66054340</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>Best in value &amp; quality combined!</t>
+  </si>
+  <si>
+    <t>The staff is super friendly.  The rooms are super clean.  Traveling through to go to Six Flags and stopped and experienced a great value for what our dollars.  Breakfast was good...loved the waffles and I will stay the next time I go through the area.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r22318234-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>22318234</t>
+  </si>
+  <si>
+    <t>11/30/2008</t>
+  </si>
+  <si>
+    <t>The Super 8 was Just Right</t>
+  </si>
+  <si>
+    <t>Stayed at the Super 8 over the thanksgiving break and had a great stay.  The rate was reasonable for the area.  The room had everything you could need with the fridge and microwave--good to hav for leftover turkey.  The coffee in room helped as well.  Breakfast included do-it-yourself waffles which my kids really enjoyed.  I will be back next time in town.</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r19900908-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>19900908</t>
+  </si>
+  <si>
+    <t>09/08/2008</t>
+  </si>
+  <si>
+    <t>Super 8 motel Rat in pool Hotel</t>
+  </si>
+  <si>
+    <t>I had went to the super 8 motel 1st thing had encountered was a drunk man who told us not to go to the bar because you will get beat up like he did.I had turned on the shower and black murky water had sprayed down it looked like something from a scary movie.Then I had went to the pool to swim and as I was swimming a rat swam over to me and scratched at my arm so I looked over to see what it was and i jumped out of the pool as soon as I saw it.Anyone going to grand prairie I strongly advise you not to go to the Super 8 Motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>I had went to the super 8 motel 1st thing had encountered was a drunk man who told us not to go to the bar because you will get beat up like he did.I had turned on the shower and black murky water had sprayed down it looked like something from a scary movie.Then I had went to the pool to swim and as I was swimming a rat swam over to me and scratched at my arm so I looked over to see what it was and i jumped out of the pool as soon as I saw it.Anyone going to grand prairie I strongly advise you not to go to the Super 8 Motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r5528048-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
+  </si>
+  <si>
+    <t>5528048</t>
+  </si>
+  <si>
+    <t>07/29/2006</t>
+  </si>
+  <si>
+    <t>Is Free really Free?</t>
+  </si>
+  <si>
+    <t>The room was priced right ($67.49) for the AAA rate.  The water pressure is okay, but not good enough for the shower massage head that is provided.  But....for the "wireless" internet connection I had to travel to 2 Walmarts in order to buy my own cable to connect to the wall.  Is it really "wireless" if you need to have a cable?  And, if the hotel does not provide the cable is it really "free"?</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2489,7151 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>151</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>158</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" t="s">
+        <v>171</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" t="s">
+        <v>185</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>180</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>196</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>208</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>208</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>225</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>234</v>
+      </c>
+      <c r="J36" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>238</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>247</v>
+      </c>
+      <c r="J38" t="s">
+        <v>248</v>
+      </c>
+      <c r="K38" t="s">
+        <v>249</v>
+      </c>
+      <c r="L38" t="s">
+        <v>250</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O38" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K39" t="s">
+        <v>254</v>
+      </c>
+      <c r="L39" t="s">
+        <v>255</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>258</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" t="s">
+        <v>262</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s">
+        <v>267</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>272</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>272</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>277</v>
+      </c>
+      <c r="J44" t="s">
+        <v>278</v>
+      </c>
+      <c r="K44" t="s">
+        <v>279</v>
+      </c>
+      <c r="L44" t="s">
+        <v>280</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>272</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>282</v>
+      </c>
+      <c r="J45" t="s">
+        <v>283</v>
+      </c>
+      <c r="K45" t="s">
+        <v>284</v>
+      </c>
+      <c r="L45" t="s">
+        <v>285</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>286</v>
+      </c>
+      <c r="O45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>288</v>
+      </c>
+      <c r="J46" t="s">
+        <v>289</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>290</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>292</v>
+      </c>
+      <c r="J47" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>294</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>296</v>
+      </c>
+      <c r="J48" t="s">
+        <v>297</v>
+      </c>
+      <c r="K48" t="s">
+        <v>298</v>
+      </c>
+      <c r="L48" t="s">
+        <v>299</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>294</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>300</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>301</v>
+      </c>
+      <c r="J49" t="s">
+        <v>302</v>
+      </c>
+      <c r="K49" t="s">
+        <v>303</v>
+      </c>
+      <c r="L49" t="s">
+        <v>304</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>294</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" t="s">
+        <v>308</v>
+      </c>
+      <c r="K50" t="s">
+        <v>309</v>
+      </c>
+      <c r="L50" t="s">
+        <v>310</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>311</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>312</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>313</v>
+      </c>
+      <c r="J51" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" t="s">
+        <v>315</v>
+      </c>
+      <c r="L51" t="s">
+        <v>316</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>311</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>317</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>318</v>
+      </c>
+      <c r="J52" t="s">
+        <v>319</v>
+      </c>
+      <c r="K52" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" t="s">
+        <v>321</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>322</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>324</v>
+      </c>
+      <c r="J53" t="s">
+        <v>325</v>
+      </c>
+      <c r="K53" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>327</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>322</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>328</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>329</v>
+      </c>
+      <c r="J54" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" t="s">
+        <v>331</v>
+      </c>
+      <c r="L54" t="s">
+        <v>332</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O54" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>335</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>336</v>
+      </c>
+      <c r="J55" t="s">
+        <v>337</v>
+      </c>
+      <c r="K55" t="s">
+        <v>338</v>
+      </c>
+      <c r="L55" t="s">
+        <v>339</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>333</v>
+      </c>
+      <c r="O55" t="s">
+        <v>158</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>340</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>341</v>
+      </c>
+      <c r="J56" t="s">
+        <v>342</v>
+      </c>
+      <c r="K56" t="s">
+        <v>343</v>
+      </c>
+      <c r="L56" t="s">
+        <v>344</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>333</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>345</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>346</v>
+      </c>
+      <c r="J57" t="s">
+        <v>342</v>
+      </c>
+      <c r="K57" t="s">
+        <v>347</v>
+      </c>
+      <c r="L57" t="s">
+        <v>348</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>333</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" t="s">
+        <v>351</v>
+      </c>
+      <c r="K58" t="s">
+        <v>352</v>
+      </c>
+      <c r="L58" t="s">
+        <v>353</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>333</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>354</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>355</v>
+      </c>
+      <c r="J59" t="s">
+        <v>356</v>
+      </c>
+      <c r="K59" t="s">
+        <v>357</v>
+      </c>
+      <c r="L59" t="s">
+        <v>358</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>359</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>360</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>361</v>
+      </c>
+      <c r="J60" t="s">
+        <v>362</v>
+      </c>
+      <c r="K60" t="s">
+        <v>363</v>
+      </c>
+      <c r="L60" t="s">
+        <v>364</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>359</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>365</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>366</v>
+      </c>
+      <c r="J61" t="s">
+        <v>367</v>
+      </c>
+      <c r="K61" t="s">
+        <v>368</v>
+      </c>
+      <c r="L61" t="s">
+        <v>369</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>370</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>371</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>372</v>
+      </c>
+      <c r="J62" t="s">
+        <v>373</v>
+      </c>
+      <c r="K62" t="s">
+        <v>374</v>
+      </c>
+      <c r="L62" t="s">
+        <v>375</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>370</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>377</v>
+      </c>
+      <c r="J63" t="s">
+        <v>378</v>
+      </c>
+      <c r="K63" t="s">
+        <v>379</v>
+      </c>
+      <c r="L63" t="s">
+        <v>380</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>370</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" t="s">
+        <v>383</v>
+      </c>
+      <c r="K64" t="s">
+        <v>384</v>
+      </c>
+      <c r="L64" t="s">
+        <v>385</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>386</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>387</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>388</v>
+      </c>
+      <c r="J65" t="s">
+        <v>389</v>
+      </c>
+      <c r="K65" t="s">
+        <v>390</v>
+      </c>
+      <c r="L65" t="s">
+        <v>391</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>386</v>
+      </c>
+      <c r="O65" t="s">
+        <v>58</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>393</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>394</v>
+      </c>
+      <c r="J66" t="s">
+        <v>395</v>
+      </c>
+      <c r="K66" t="s">
+        <v>396</v>
+      </c>
+      <c r="L66" t="s">
+        <v>397</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>386</v>
+      </c>
+      <c r="O66" t="s">
+        <v>58</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>399</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>400</v>
+      </c>
+      <c r="J67" t="s">
+        <v>401</v>
+      </c>
+      <c r="K67" t="s">
+        <v>402</v>
+      </c>
+      <c r="L67" t="s">
+        <v>403</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>386</v>
+      </c>
+      <c r="O67" t="s">
+        <v>58</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>404</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>405</v>
+      </c>
+      <c r="J68" t="s">
+        <v>406</v>
+      </c>
+      <c r="K68" t="s">
+        <v>407</v>
+      </c>
+      <c r="L68" t="s">
+        <v>408</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>409</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>410</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>411</v>
+      </c>
+      <c r="J69" t="s">
+        <v>412</v>
+      </c>
+      <c r="K69" t="s">
+        <v>413</v>
+      </c>
+      <c r="L69" t="s">
+        <v>414</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>415</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>416</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>417</v>
+      </c>
+      <c r="J70" t="s">
+        <v>418</v>
+      </c>
+      <c r="K70" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" t="s">
+        <v>419</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>420</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>422</v>
+      </c>
+      <c r="J71" t="s">
+        <v>423</v>
+      </c>
+      <c r="K71" t="s">
+        <v>424</v>
+      </c>
+      <c r="L71" t="s">
+        <v>425</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>426</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>429</v>
+      </c>
+      <c r="J72" t="s">
+        <v>430</v>
+      </c>
+      <c r="K72" t="s">
+        <v>431</v>
+      </c>
+      <c r="L72" t="s">
+        <v>432</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>426</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>433</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>434</v>
+      </c>
+      <c r="J73" t="s">
+        <v>435</v>
+      </c>
+      <c r="K73" t="s">
+        <v>436</v>
+      </c>
+      <c r="L73" t="s">
+        <v>437</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>438</v>
+      </c>
+      <c r="O73" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>440</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>441</v>
+      </c>
+      <c r="J74" t="s">
+        <v>442</v>
+      </c>
+      <c r="K74" t="s">
+        <v>443</v>
+      </c>
+      <c r="L74" t="s">
+        <v>444</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>445</v>
+      </c>
+      <c r="O74" t="s">
+        <v>58</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>446</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>447</v>
+      </c>
+      <c r="J75" t="s">
+        <v>448</v>
+      </c>
+      <c r="K75" t="s">
+        <v>206</v>
+      </c>
+      <c r="L75" t="s">
+        <v>449</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>450</v>
+      </c>
+      <c r="O75" t="s">
+        <v>58</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>451</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>452</v>
+      </c>
+      <c r="J76" t="s">
+        <v>448</v>
+      </c>
+      <c r="K76" t="s">
+        <v>453</v>
+      </c>
+      <c r="L76" t="s">
+        <v>454</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>450</v>
+      </c>
+      <c r="O76" t="s">
+        <v>58</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" t="s">
+        <v>457</v>
+      </c>
+      <c r="K77" t="s">
+        <v>458</v>
+      </c>
+      <c r="L77" t="s">
+        <v>459</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>460</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>461</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>462</v>
+      </c>
+      <c r="J78" t="s">
+        <v>463</v>
+      </c>
+      <c r="K78" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" t="s">
+        <v>464</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>465</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>466</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>467</v>
+      </c>
+      <c r="J79" t="s">
+        <v>468</v>
+      </c>
+      <c r="K79" t="s">
+        <v>469</v>
+      </c>
+      <c r="L79" t="s">
+        <v>470</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>471</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>472</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>473</v>
+      </c>
+      <c r="J80" t="s">
+        <v>474</v>
+      </c>
+      <c r="K80" t="s">
+        <v>475</v>
+      </c>
+      <c r="L80" t="s">
+        <v>476</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>478</v>
+      </c>
+      <c r="J81" t="s">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s">
+        <v>480</v>
+      </c>
+      <c r="L81" t="s">
+        <v>481</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>471</v>
+      </c>
+      <c r="O81" t="s">
+        <v>70</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>482</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>483</v>
+      </c>
+      <c r="J82" t="s">
+        <v>484</v>
+      </c>
+      <c r="K82" t="s">
+        <v>485</v>
+      </c>
+      <c r="L82" t="s">
+        <v>486</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>487</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>488</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>489</v>
+      </c>
+      <c r="J83" t="s">
+        <v>490</v>
+      </c>
+      <c r="K83" t="s">
+        <v>491</v>
+      </c>
+      <c r="L83" t="s">
+        <v>492</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>493</v>
+      </c>
+      <c r="O83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>495</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>496</v>
+      </c>
+      <c r="J84" t="s">
+        <v>497</v>
+      </c>
+      <c r="K84" t="s">
+        <v>498</v>
+      </c>
+      <c r="L84" t="s">
+        <v>499</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>493</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>500</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>501</v>
+      </c>
+      <c r="J85" t="s">
+        <v>502</v>
+      </c>
+      <c r="K85" t="s">
+        <v>503</v>
+      </c>
+      <c r="L85" t="s">
+        <v>504</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>505</v>
+      </c>
+      <c r="O85" t="s">
+        <v>58</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>506</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>507</v>
+      </c>
+      <c r="J86" t="s">
+        <v>508</v>
+      </c>
+      <c r="K86" t="s">
+        <v>509</v>
+      </c>
+      <c r="L86" t="s">
+        <v>510</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>505</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>511</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>512</v>
+      </c>
+      <c r="J87" t="s">
+        <v>513</v>
+      </c>
+      <c r="K87" t="s">
+        <v>514</v>
+      </c>
+      <c r="L87" t="s">
+        <v>515</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>516</v>
+      </c>
+      <c r="O87" t="s">
+        <v>58</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>518</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>519</v>
+      </c>
+      <c r="J88" t="s">
+        <v>520</v>
+      </c>
+      <c r="K88" t="s">
+        <v>521</v>
+      </c>
+      <c r="L88" t="s">
+        <v>522</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>516</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>523</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>524</v>
+      </c>
+      <c r="J89" t="s">
+        <v>525</v>
+      </c>
+      <c r="K89" t="s">
+        <v>526</v>
+      </c>
+      <c r="L89" t="s">
+        <v>527</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>528</v>
+      </c>
+      <c r="O89" t="s">
+        <v>158</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>529</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>530</v>
+      </c>
+      <c r="J90" t="s">
+        <v>531</v>
+      </c>
+      <c r="K90" t="s">
+        <v>532</v>
+      </c>
+      <c r="L90" t="s">
+        <v>533</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>528</v>
+      </c>
+      <c r="O90" t="s">
+        <v>158</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>534</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>535</v>
+      </c>
+      <c r="J91" t="s">
+        <v>536</v>
+      </c>
+      <c r="K91" t="s">
+        <v>537</v>
+      </c>
+      <c r="L91" t="s">
+        <v>538</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>528</v>
+      </c>
+      <c r="O91" t="s">
+        <v>58</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>539</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>540</v>
+      </c>
+      <c r="J92" t="s">
+        <v>541</v>
+      </c>
+      <c r="K92" t="s">
+        <v>542</v>
+      </c>
+      <c r="L92" t="s">
+        <v>543</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>544</v>
+      </c>
+      <c r="O92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>545</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>546</v>
+      </c>
+      <c r="J93" t="s">
+        <v>547</v>
+      </c>
+      <c r="K93" t="s">
+        <v>548</v>
+      </c>
+      <c r="L93" t="s">
+        <v>549</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>544</v>
+      </c>
+      <c r="O93" t="s">
+        <v>76</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>551</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>552</v>
+      </c>
+      <c r="J94" t="s">
+        <v>553</v>
+      </c>
+      <c r="K94" t="s">
+        <v>554</v>
+      </c>
+      <c r="L94" t="s">
+        <v>555</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>544</v>
+      </c>
+      <c r="O94" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>556</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>557</v>
+      </c>
+      <c r="J95" t="s">
+        <v>558</v>
+      </c>
+      <c r="K95" t="s">
+        <v>559</v>
+      </c>
+      <c r="L95" t="s">
+        <v>560</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>561</v>
+      </c>
+      <c r="O95" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>562</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>563</v>
+      </c>
+      <c r="J96" t="s">
+        <v>564</v>
+      </c>
+      <c r="K96" t="s">
+        <v>565</v>
+      </c>
+      <c r="L96" t="s">
+        <v>566</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>561</v>
+      </c>
+      <c r="O96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>567</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>568</v>
+      </c>
+      <c r="J97" t="s">
+        <v>569</v>
+      </c>
+      <c r="K97" t="s">
+        <v>570</v>
+      </c>
+      <c r="L97" t="s">
+        <v>571</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>572</v>
+      </c>
+      <c r="O97" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>573</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>574</v>
+      </c>
+      <c r="J98" t="s">
+        <v>575</v>
+      </c>
+      <c r="K98" t="s">
+        <v>576</v>
+      </c>
+      <c r="L98" t="s">
+        <v>577</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>578</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>579</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>580</v>
+      </c>
+      <c r="J99" t="s">
+        <v>581</v>
+      </c>
+      <c r="K99" t="s">
+        <v>582</v>
+      </c>
+      <c r="L99" t="s">
+        <v>583</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>584</v>
+      </c>
+      <c r="O99" t="s">
+        <v>58</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>586</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>587</v>
+      </c>
+      <c r="J100" t="s">
+        <v>588</v>
+      </c>
+      <c r="K100" t="s">
+        <v>589</v>
+      </c>
+      <c r="L100" t="s">
+        <v>590</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>591</v>
+      </c>
+      <c r="O100" t="s">
+        <v>58</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>593</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>594</v>
+      </c>
+      <c r="J101" t="s">
+        <v>595</v>
+      </c>
+      <c r="K101" t="s">
+        <v>596</v>
+      </c>
+      <c r="L101" t="s">
+        <v>597</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>591</v>
+      </c>
+      <c r="O101" t="s">
+        <v>58</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>598</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>599</v>
+      </c>
+      <c r="J102" t="s">
+        <v>600</v>
+      </c>
+      <c r="K102" t="s">
+        <v>601</v>
+      </c>
+      <c r="L102" t="s">
+        <v>602</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>603</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>604</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>605</v>
+      </c>
+      <c r="J103" t="s">
+        <v>606</v>
+      </c>
+      <c r="K103" t="s">
+        <v>607</v>
+      </c>
+      <c r="L103" t="s">
+        <v>608</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>609</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>610</v>
+      </c>
+      <c r="J104" t="s">
+        <v>611</v>
+      </c>
+      <c r="K104" t="s">
+        <v>612</v>
+      </c>
+      <c r="L104" t="s">
+        <v>613</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>614</v>
+      </c>
+      <c r="O104" t="s">
+        <v>158</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>616</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>617</v>
+      </c>
+      <c r="J105" t="s">
+        <v>618</v>
+      </c>
+      <c r="K105" t="s">
+        <v>619</v>
+      </c>
+      <c r="L105" t="s">
+        <v>620</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>621</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>623</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>624</v>
+      </c>
+      <c r="J106" t="s">
+        <v>625</v>
+      </c>
+      <c r="K106" t="s">
+        <v>626</v>
+      </c>
+      <c r="L106" t="s">
+        <v>627</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>628</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>629</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>630</v>
+      </c>
+      <c r="J107" t="s">
+        <v>631</v>
+      </c>
+      <c r="K107" t="s">
+        <v>632</v>
+      </c>
+      <c r="L107" t="s">
+        <v>633</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>634</v>
+      </c>
+      <c r="O107" t="s">
+        <v>58</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>635</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>636</v>
+      </c>
+      <c r="J108" t="s">
+        <v>637</v>
+      </c>
+      <c r="K108" t="s">
+        <v>638</v>
+      </c>
+      <c r="L108" t="s">
+        <v>639</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>640</v>
+      </c>
+      <c r="O108" t="s">
+        <v>58</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>641</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>642</v>
+      </c>
+      <c r="J109" t="s">
+        <v>643</v>
+      </c>
+      <c r="K109" t="s">
+        <v>644</v>
+      </c>
+      <c r="L109" t="s">
+        <v>645</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>646</v>
+      </c>
+      <c r="O109" t="s">
+        <v>58</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>34037</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>648</v>
+      </c>
+      <c r="G110" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s">
+        <v>46</v>
+      </c>
+      <c r="I110" t="s">
+        <v>649</v>
+      </c>
+      <c r="J110" t="s">
+        <v>650</v>
+      </c>
+      <c r="K110" t="s">
+        <v>651</v>
+      </c>
+      <c r="L110" t="s">
+        <v>652</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_739.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_739.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="760">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Debbie495</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>tscrog01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r568104178-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>arodri850913</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r567733660-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>Spring break vacation.  Room was overpriced thought it would be a little nicer due to the $94 a night price or at least have a decent breakfast.  The breakfast may as well not of existited. Waffles and cereal. Property was clean it was a good location.  Room had a piece of carpet missing and our sheets had cigarette burns in them.  Internet was good though.</t>
   </si>
   <si>
+    <t>A4699OYsharonr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r554835360-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>O3268IGjohnh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r554832773-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>X5822MKjenniferb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r552765520-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -258,6 +276,9 @@
     <t>01/09/2018</t>
   </si>
   <si>
+    <t>Brenda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r542252580-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -276,6 +297,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Stefanie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r538693828-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -294,6 +318,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>sharonsY6970OK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r536093676-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t xml:space="preserve">This was my favorite place to reside when visiting my grandson because it was the ideal location for food, shopping, and meeting his mom until my last visit. For the last 3 years, I have stayed here but I’m sad to say I won’t be returning. The room had a roach problem and I don’t do roaches. I do not expose my children to the disease infested bugs at home and surely won’t pay to stay somewhere that has them as well. Everything else about the place met my expectation but the roaches is a no go. Sorry. </t>
   </si>
   <si>
+    <t>295royj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r535717820-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>The staff was terrible. I had to check in before I went to work, the room wasn't ready, but they gave me a key and said that they would have it ready by the time I got off. I checked by phone TWO HOURS later, and it still wasn't ready, so I found another place and told the answering service that I wanted a refund. They offered me a raincheck and I declined it. They said no problem, and told me to see the management in person. When I got there, the manager was adamantly refusing to give me my money back, even though I had never entered the room. Terrible staff! I will tell as many people as I can from my job at general motors to AVOID this place like the plague!More</t>
   </si>
   <si>
+    <t>stephaniehD9787OU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r535169945-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -342,6 +375,9 @@
     <t>This was a business trip for me the room was very clean the staff was very nice the location was everything cuz it was located where the food was where the shopping is and close to the freeway I will choose this hotel again</t>
   </si>
   <si>
+    <t>habrahamd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r534641772-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -357,6 +393,9 @@
     <t>The only problem i had was the smell. I have been in numerous hotels and these smell like people have smoked in them and managment wont buy the right supplies to eliminate the smell. I own a janitorial company and that smell can be removed if the property owners paid the right price and stop being cheap.</t>
   </si>
   <si>
+    <t>Kandiss M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r520793806-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -378,6 +417,9 @@
     <t>I was unable to check-in when I arrived because the computer was down. Hotel desk attendant said I didn't have a reservation and tried to send me to a different location. I had to call customer service to get things moving and get checked in. Service was terrible. Attendant had her boyfriend hanging out in the lobby area most of the night (unprofessional). Room smelled bad. Smoke detector was my wake up alarm and it had no reason to go off. I've stayed at this location several times and this was the first time I had an issue, other than a couple years ago when a roach came crawling out of the bathroom area (yuk). More</t>
   </si>
   <si>
+    <t>Speedbump555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r520553382-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -393,6 +435,9 @@
     <t>Average for the price.  Damaged carpet at room entrance, but over-all not bad.  There appears to be an extended-stay wing.  The pool area had loud music --and loud people until around 11pm on each of the nights we stayed.  If not for the noise, we would have stayed longer.</t>
   </si>
   <si>
+    <t>Laurie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r516466292-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -408,6 +453,9 @@
     <t>Decent place for a good price. Location is convenient to amenities. Be advised its right behind a couple fast food restaurants so relaxing by the pool (which is on the small side) isn't easy. Room was clean and good size. Our doors card reader died so we had some trouble getting in but Staff was very helpful.</t>
   </si>
   <si>
+    <t>Amanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r496874199-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -426,6 +474,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Holly H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r493320630-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -441,6 +492,9 @@
     <t>NIce place, we came to town for a Rangers game and wanted a convenient and not pricey hotel that would put us back on I-10 the next morning....This was perfect. Room was clean and comfortable.</t>
   </si>
   <si>
+    <t>angelaU9396ZE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r491622724-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -456,6 +510,9 @@
     <t>Lights didnt work...came to change them and still didnt work....Jacuzzi was cracked and didnt work... Never once did they off discount off or another room. Never stay here again.</t>
   </si>
   <si>
+    <t>Y2137OScarmenc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r485996265-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -474,6 +531,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>953francesb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r481372568-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -510,6 +570,9 @@
     <t>I have stayed here several times on business---however over the last 2 years the price has almost doubled---My stay last week was NICE--- however 1 day it was raining and we left our room later than usual---We asked the maid to come back after 30 minutes--- we returned mid afternoon and their had been NO ROOM SERVICE AT ALL !!!!!!</t>
   </si>
   <si>
+    <t>mcgillevelyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r478243148-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -519,6 +582,9 @@
     <t>04/23/2017</t>
   </si>
   <si>
+    <t>K376CMgailc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r477479411-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -534,6 +600,9 @@
     <t>This hotel was very close too our meeting and the travel was fast and food was good in the neighborhood. Wal Mart was close and there was plenty of places to shop and buy food</t>
   </si>
   <si>
+    <t>Neal B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r476924536-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -543,6 +612,9 @@
     <t>04/18/2017</t>
   </si>
   <si>
+    <t>Maricela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r468777267-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -561,6 +633,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>marypJ889ZZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r468679615-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -576,6 +651,9 @@
     <t>My mother and I spent 7 days here while visiting family. The handicapped room work very well for us. The housekeeping staff did a wonderful job everyday. The value we received for our room was excellent. My only complaint was the breakfast. I wish there was more variety, since we are there every morning. I will definitely stay again for the price.</t>
   </si>
   <si>
+    <t>Debra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r466081146-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -591,6 +669,9 @@
     <t>Overall this hotel was clean, friendly people had food close to the hotel, since we were in a big rig, we had. To walk to get food, which worked out perfectly. The breakfast was just ok.</t>
   </si>
   <si>
+    <t>Sierra10145</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r461016191-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -612,6 +693,9 @@
     <t>We arrived on the 13 of febuary this year. Me and my fiance got there jucuzzi suite. Came all the way from oklahoma to get there and as soon as we get in our room the lobby calls and says: did i just see a dog go into that room, uhhh yes we reserved her when we got the room then all she says is thats 15 a night. So im pretty made that i got quoted wrong got into the room to relax and the remote had no back to it, there was a wierd smell and we just ingnored it. That night we tried to use the jucuzzi( wouldnt work) they had to flip the breaker. Second night same thing except it looked like mold was coming out of the drain and looked disgusting room smelt worse after. Also we didnt have internet for half of the first night had to call tech. Will not be back! Very  dissatisfied   More</t>
   </si>
   <si>
+    <t>dfwtx2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r459184336-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -627,6 +711,9 @@
     <t>Very reasonably priced, clean room.  Not luxurious, but I didn't pay the price a luxurious room would command.</t>
   </si>
   <si>
+    <t>June J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r458189677-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -648,6 +735,9 @@
     <t>The cost was a bit pricey. I could not connect to Internet even with code. I call the office they told me to keep trying the purpose was to get away and study and complete my school work, but I was able to. The breakfast sucked the batter for waffles was to thin. At 7am there were no selection for breakfast just thin batter mix and a apple smh though I would be able to eat breakfast before work and do homework but NO I wasn't able to either one. I rate my visit a 5.  Oh and my room smelled like a weed field a non smoking room. I don't smoke pot nor cigarettes. With respiratory issue it was challenging but I made it. Thank GodMore</t>
   </si>
   <si>
+    <t>Figment O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r451036728-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -663,6 +753,9 @@
     <t xml:space="preserve">Was given a smoke-free room and when we opened the door the smoke smell hit us right in the face. It was so strong that got in our clothes and we could smell it on us as we went to dinner and it even lingered in our car. Either someone had smoked in our room prior or it is a remnant of a once smoking room. Just slapping a smoke free label on a room that was once smoking does not make it odorless. </t>
   </si>
   <si>
+    <t>Don J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r449915660-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -678,6 +771,9 @@
     <t>the lady at the front desk was very polite, room was spacious and clean. The only downside to me was that you can't see the flat screen TV from the desk where I was doing work on my computer. Flat screen was mounted to the wall and could not be turned so I could see it while working. :(</t>
   </si>
   <si>
+    <t>739joannet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r446747520-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -696,6 +792,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>STAR M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r432623917-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -717,6 +816,9 @@
     <t>I called and asked if I could reserve the room with my card and my boyfriend pay when we got there. The female on the phone assured me this was fine. Got to the hotel at 3 in the morning.  My boyfriend paid. Slept a few hours. Woke up up to find the hotel had the $508.43 on hold on my card!  I had to call my bank, who thank goodness is a credit union, so they know me! They had to speak to an employee and release my money. The coffee maker in the room didn't work. The female at the counter said she would check it after we left.  I told her that was what I expected from their service, a maid brought another maker, but no coffee. The maid asked if I wanted the room cleaned I said yes, she got an angry look on her face.  The safety bar in the bathtub was loose from the wall! The shower curtain is too small and doesn't reach all the way across. More</t>
   </si>
   <si>
+    <t>O2429CZryanb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r425121227-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -735,6 +837,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>LML4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r419470504-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -756,6 +861,9 @@
     <t>I stayed here on a business trip and was very pleased. It was convenient to the interstate and to restaurants, the room was clean and the staff was friendly and accommodating. I got in late evening and walked across the street to a Sonic for a quick dinner. They did have a breakfast in the hotel that was fair. The desk staff let me use their computer to print out an important document I needed and couldn't get my computer to pull the document up. I really appreciated the kindness of them allowing me to do that. I will certainly stay there again should my travels take me through Ft. Worth again.More</t>
   </si>
   <si>
+    <t>juliekennedy73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r406187764-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -771,6 +879,9 @@
     <t>Box spring was broke ice machine broke pool was nasty and smelled of urine. Plus mold in corner of bathtub.</t>
   </si>
   <si>
+    <t>Ashley H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r404675942-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -792,6 +903,9 @@
     <t>The hotel was a good hotel for couples to go and stay but maybe be a little cautionary taking kids. We had my son on this trip and he was fine but our neighbors next door were up all night yelling, screaming and cussing up a storm. I called the front desk and they took care of the situation temporarily. A few more hours later we heard them back at it. It didn't help that the walls were thin and the door wasn't fully sealed at the bottom. Other than that the hotel wasn't too bad. The breakfast was okay, no hot food was served. It was just your typical cereal, oatmeal, and waffle breakfast. I would stay here again if it was just my husband and I. With little ones I would reconsider and try to find a little better hotel. More</t>
   </si>
   <si>
+    <t>jeeperdude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r401461029-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -807,6 +921,9 @@
     <t>A very clean hotel with nice staff.  The lady working the desk at night (Ana) was especially helpful.  Good breakfast with cereal, toast, waffles, fruit, pastries and juice.  The rooms were very clean and comfortable.  My only complaint about the room is the gap under the door was rather larger.  The hotel isn't in the greatest area of town, but we had no issues.  Also, the wifi was useless once people started getting on, but had brought our own so it wasn't too much of an issue.</t>
   </si>
   <si>
+    <t>JazminP32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r391551055-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -822,6 +939,9 @@
     <t xml:space="preserve">The person at the front desk was very friendly and our hotel room was decorated nice and modern. However, my boyfriend and I woke up around 2 AM itching like CRAZY. We couldn't find anything in the bed, but my boyfriend could feel little bumps on his skin. So we both ended up sleeping on the couch and that's when we found a cigarette in a non-smoking room. The pool was filthy so bad to the point to where we didn't even want to stick our feet in. </t>
   </si>
   <si>
+    <t>catherinewA111EA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r391516723-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -837,6 +957,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>kimberlywS6085HU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r388552113-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -861,6 +984,9 @@
     <t>I have stayed there many time in the past for business---always getting 1 of 2 downstairs smoking rooms---- this time--the bed was terrible(big dipin middle of bed)--I asked housekeeping to flip.turn matress--wasnt done---- not all electrical outlets worked--had to make coffee in the morning on the floor--near the TV--- I usually purchase 2-3 rooms for employees---At check-in I was told 1st night for both rooms(on a tuesday)would be higher cost because of car club staying there ???????????   WONT STAY THERE AGAIN !!!</t>
   </si>
   <si>
+    <t>caminar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r374477273-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1005,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Jacqueline R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r370940190-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1020,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Finis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r357852388-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -903,6 +1035,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>christinefW5338XG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r357359755-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1053,9 @@
     <t>Tried to make waffles. Machine came apart while I was using it. Front desk girl did not offer to help clean mess and said it could be left for cleaning people to handle when they got in.</t>
   </si>
   <si>
+    <t>Bryan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r355157900-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1074,9 @@
     <t>This Super 8 has been recently updated so the rooms look very clean inside with huge pictures painted on the wall of local attractions.  It is in a very safe and high traffic area.  I used to have a home a couple miles away from this hotel for over 10 years and know the area very well. It is a very nice and safe area.  It is much better than staying near Six Flags or the stadium as the hotel guests are not noisy here. It has Sonic on the back side, Vroom huge car lot full of really nice almost new vehicles.. it's like CarMax. There's a Burger King across the street and a Sams and Walmart Supercenter just a block away.  Both the lady that checked us in on a Saturday night and the lady that checked us out on Sunday morning were very friendly and smiling. Unexpected plus for church goers, they convert the breakfast room into a worship center on Sun morning around 10am.My wife and I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>I7121CDjamesb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r333597493-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1095,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>susantJ5629QF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r333106483-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1113,9 @@
     <t>Great staff, rooms are clean and I can always get a room. They need to keep up with maintenance as things are a bit shabby and there are sometimes crickets as well as rowdys in the parking lot late on the weekends.</t>
   </si>
   <si>
+    <t>576darienm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r328459661-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1134,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Susan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r325506914-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1152,9 @@
     <t>Great price!!! Our room was clean &amp; up-to-date. We felt like we were in a very safe location. Our room was quiet...no loud noises from traffic or other rooms. You can walk across parking lot to Sonic or Arby's. We made several trips to Sonic for drinks.</t>
   </si>
   <si>
+    <t>787heribertor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r322781439-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1176,9 @@
     <t>The person checking me in was really nice and made feel welcome. The beds were great. The rooms were very clean and really liked the decor. Breakfast was a bit of a disappointment. Only one waffle maker and there was a line. Not much else worth staying for so I got a coffee and left. The stairs outside are slippery when wet(it has rained) so be careful. I almost fell but held on to the rail. I told the front desk to another young lady there but I check later and the puddles were still there. Perhaps some anti slip strips can help. Overall the stay was good and I will be staying there again. Price was great for the value. More</t>
   </si>
   <si>
+    <t>Q5041VQtraceyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r320736944-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1194,9 @@
     <t>My friend and I stay there for our girls getaway! It is located in the perfect spot for easy access to most of DFW. The rooms are updated..my only complaint is that the cable proivdes very little channel but I guess most people arent in the room.</t>
   </si>
   <si>
+    <t>LagunaBluesman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r318824483-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1212,9 @@
     <t xml:space="preserve">Stayed one night here... it was better than the Howard Johnson I WAS staying at, but also about $40 more per night. That said, the room was clean, the decor was modern, and fully equipped with all the amenities.  </t>
   </si>
   <si>
+    <t>209billyb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r318744171-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1065,6 +1227,9 @@
     <t xml:space="preserve">This place was terrible Where do I began, the mattress was lumpy,like going down a heel,they only had half pillows,like a throw pillow,the air condition was so noisy that you almost wanted to suffer the heat just to keep it turned off When asked about another room, none was available, and did I mention the internet not working Will not stay here again </t>
   </si>
   <si>
+    <t>Roy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r317128131-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1245,9 @@
     <t>The carpet turned our feet and socks black, Maid service appeared to be by request, We had to take towels to the office and ask for clean ones, we had to ask at the office for toilet paper and Kleenex.</t>
   </si>
   <si>
+    <t>S4976PVkarenf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r307628693-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1098,6 +1266,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>leej816</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r306067372-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1284,9 @@
     <t xml:space="preserve">Started off horrible and ended horrible. Thanks for a great 1 year anniversary experience with my husband.....not. </t>
   </si>
   <si>
+    <t>V3226VNdianeh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r301657635-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1305,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>ahsleyr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r293004459-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1323,9 @@
     <t xml:space="preserve">location was great for the price. I will definitely be staying here again. staff was great as well. little disappointed in the breakfast selection but not a deal breaker to stay again.  </t>
   </si>
   <si>
+    <t>jeneaf2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r292788695-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1161,6 +1341,9 @@
     <t>I usually have no issues but this time it was roaches every where called and they changed rooms but never offered a discount or free night just said they switched pest control companys</t>
   </si>
   <si>
+    <t>valeriem644</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r286264867-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1362,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>karina3519</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r280628978-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1381,9 @@
   </si>
   <si>
     <t>Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were...Hotel manager is the rudest I've ever have to deal with, whatever happened to the customer is always right? We travel 6 hours every year to see the Rangers play and we've stayed in this location 3 times in the passed, including our most recent stay.  We had tried making online reservations however, the system was down and it stated that the reservation was not processed. We drove up Friday, June 12th and asked for a room for 2 nights, name on the system was pulled up and we were given the reservation for the 2 nights, Friday and Saturday.  Received a call on Saturday where I was told that my credit card was charged for an extra night, apparently the reservation made online DID go through and we were not aware of it. The receptionist at check in did not tell us there was already a reservation under my name when I reserved the room. We talked to the receptionist and she said that the moment my name and license had been ran through the system it should have shown that there was another reservation under my name, however when we talked to the manager, the receptionist contradicted herself.  The manager insisted that we should have called to verify that the transaction had gone through and that she would not refund me for one night because we never showed up to use the other room, room that we were oblivious of. The manager, Yogi, was very rude, kept cutting me off while I tried to explain the situation and refused to work with me or even listen to what I had to say.  She insisted that it was a mistake on our end and that she would not refund any part of the money.  We thought that since one night was already paid for, she could refund half of the reservation for the night of June 12th and 13th, nothing worked, she would not reason and emphasized that she was the highest authority there and her husband was the other manager.  I will NEVER come back to this location and I will be contacting the franchise manager.More</t>
+  </si>
+  <si>
+    <t>ems24240</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r279801240-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
@@ -1221,6 +1410,9 @@
 One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same...My stay at Super 8 was okay. The room and lobby were clean. The pool was kept up nice. There were just a few issues we ran into.The staff could be pretty rude sometimes. We ran into an issue with the wifi, it wasn't working for us so we called the front desk. Instead of explaining the situation the woman snapped back "I know the wifi isn't working." I understand she probably got a lot of calls that day if it wasn't working for everyone, but we were not aware of the problem. We did not appreciate her snappy tone.There was some construction going on during our stay, and I guess they had to turn off the water. No one ever warned us about the water being turned off. Again, we called the office to see what happened and we were met with the same snappy "I know the water is off. It should be on again soon." We were left for almost the rest of the day without water. We couldn't shower, use the bathroom, or brush our teeth until late in the evening. One afternoon we went to Sonic to get lunch. When we came back to our room it was being cleaned by the maids. We decided to hang out in the lobby while they finished. The woman at the desk didn't say anything to us for probably five minutes, and then in the same snappy tone asked us "So is there anything you need or what." I work in customer service and I know that is not the way you speak to a guest at your establishment. I would have appreciated it if she greeted us with a smile or politely asked if we needed help with anything. Our stay was okay, and we would be very understanding about the issues we ran into if it was handled better. If we were warned about the water issues so we could have showered before and if the women working at the desk were a little more polite I would probably recommend staying at the Super 8 again.More</t>
   </si>
   <si>
+    <t>895terrences</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r279643089-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1428,9 @@
     <t xml:space="preserve">Water was off in my room for at check in for about  4 hours or more and we were not offered a discounted rate for situation we were  put under for staying at this hotel this was terrible experience. </t>
   </si>
   <si>
+    <t>Amy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r277684089-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1449,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Larry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r268921155-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1470,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Anastasia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r261268552-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1488,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Kandas T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r250706186-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1512,9 @@
     <t>The room was really clean. Looked clean and smelled clean. We stayed three days with minimal room service-no need to change sheets daily. Each time we entered the room it smelled clean...all three days. I am astounded! Kudos to Super 8 housekeeping!! The room was in great shape also. Nothing worn out or outdated. Had a microwave and fridge. Nice simple breakfast with waffles! juice, coffee, cereal, oatmeal, sweet rolls with fruity centers and apples. Plenty to start your day. The staff was friendly and super helpful. This was my first winter stay at a motel, and may I say the heating worked well! we were toasty all weekend. Also, this motel is right across the interstate from Paragon Outlet mall and a skip away from Traders Village. the motel parking lot adjoins with a sonic drive in and an arbys.  I am sure I will stay here again.More</t>
   </si>
   <si>
+    <t>Cliff H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r247461668-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1530,9 @@
     <t xml:space="preserve">Hotel was decent and room was comfortable. Make sure you double check your reservation. Made a reservation had the number etc. Called the hotel due to running later then expected and they cancelled our reservation for some unknow reason. No one could tell me why. They did still have a room and honored our price  </t>
   </si>
   <si>
+    <t>Jay R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r239517480-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1554,9 @@
     <t>we were in Texas for a family visit and stayed at Super 8 Grand Prairie, which is just a right decision we made that night. Its easy to find &amp; easy access from the free way and just about what 1 family needs after a long day. The staff was very cooperative n helpful to us. The rooms were way too nice &amp; clean which made us feel like home. The beds were very comfy &amp; slept peacefully. Had a fresh morning with their gourmet coffee n breakfast. Will definetly recommend to all who is looking to stay in that area to take an experience of warm welcome n friendly staff &amp; peaceful stay...More</t>
   </si>
   <si>
+    <t>Nellie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r223658974-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1575,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Billy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r217026534-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1593,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Sylvia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r217026000-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1608,9 @@
     <t>A bit noisy due to location.  Sunday morning breakfast was packed at 9 a.m.  Poor guy had heck trying to keep up with everything.</t>
   </si>
   <si>
+    <t>James D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r206401185-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +1629,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Rita M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r201922412-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1647,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Pamela F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r199696897-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1668,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Michael M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r198432789-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1686,9 @@
     <t xml:space="preserve">Need to repair bathroom wall instead of using tape. Chair needs to be replaced in room and a bath chair instead of a yard chair for the shower. Also the maids need to clean the walls in the bathroom better. The hot water was not hot just lukewarm in the shower and pressure was not very good </t>
   </si>
   <si>
+    <t>Pennie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r196912753-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1704,9 @@
     <t>My reservation shows up over an hour after I am there. I am not pleased with the internet system that you have for your reservations. The lady that waited on me was very nice and assisted me with another reservation and then had to cancel the one that came in after I was already settled into my room.</t>
   </si>
   <si>
+    <t>Brenda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r191065522-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1725,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>XCMonkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r188579320-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1749,9 @@
     <t>I can't speak to value for your dollar since I used points to pay, but I certainly didn't think it was worth the point value Wyndham has ascribed to this. It was relatively clean, but very close to the interstate so it was loud (lots of sirens this night). I booked a pet-friendly room but once again, they told me at the desk that that didn't apply to cats. I think it is horrible customer service for hotels to not make note of this on their website. I book primarily based on where my pet can stay, how does it help a hotel to not make this information very explicit? The bed was kinda lumpy and the internet didn't work.More</t>
   </si>
   <si>
+    <t>Timothy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r188467103-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1767,9 @@
     <t xml:space="preserve">RReserved a smoking room and when I got there git issued a non smoking room. Friends only paid 107.00 and I had to pay 125.00 a night. Called 800 number and complained and was told I would get a phone call as of today no phone call. </t>
   </si>
   <si>
+    <t>Sheila8713</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r186748247-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1788,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Brandy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r183668884-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1806,9 @@
     <t xml:space="preserve">Bed bugs ,mold in the coffee pot ,bed sheets had me itching and I got bed bug bites wing worms and a rash </t>
   </si>
   <si>
+    <t>Lya B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r181276039-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1578,6 +1830,9 @@
     <t>Room smelled like a skunk. Old rose petals behind the door, jacuzzi tub did not look clean. Regular bathroom was clean, but when you took your shoes off the carpet was sort of sticky. Called night desk and they brought Glade air freshner, but said they probably wouldn't do anything to discount the room even though there were no other rooms available. The remote control for the television had nothing but tape holding the batteries in so sometimes the remote worked and sometimes it didn't. There were old rose petals behind the door where it was not vaccuumed. Upholstery on chairs in room did not look so clean. The morning desk clerk gave us 20.00 off the room for the skunky smell. The morning clerk was nice, but the room experience was not pleasant and I felt like more could have been done to make it a more pleasurable stay and to compensate for the funky room. Not impressed. Only stayed here because we had no other options, but they definitely did not win my future business.More</t>
   </si>
   <si>
+    <t>Sonny C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r181186569-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1593,6 +1848,9 @@
     <t>Pleasant staff - even allowed me to check in a few minutes early. Great location with plenty of eating establishments nearby. The room was clean but a slight smell of bug spray was noticable. Can't say anything about the breakfast as I did not eat there.</t>
   </si>
   <si>
+    <t>yojimbo56003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r177522826-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1869,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Kathy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r176392091-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1887,9 @@
     <t>The hotel was clean, do ask  for a room away from the highway. Front desk clerk was friendly enough helpful with short cuts around town. Easy access from highway 20. traders village is just up the road. The cowboys stadium is about 20 to 30 minutes away depending on traffic. And a few of good restaurants around. Would stay here again.</t>
   </si>
   <si>
+    <t>Janice S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r176240378-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1905,9 @@
     <t xml:space="preserve">Room appeared neat and clean. However, bathroom was NOT. Floor had not been swept. Dead cricket under sink. </t>
   </si>
   <si>
+    <t>Dawn3131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r170138494-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1926,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r168114899-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1947,9 @@
     <t>I wasn't expecting the Ritz Carlton. But I was expecting at least someplace "clean". I would have left as soon as I saw the huge patch of mold (on the ceiling directly above the commode), but I was literally too tired and wore out. But it wasn't easy to get into the bed knowing that they were willing to rent a room that had a huge (14"+ diameter) patch of obvious mold in the ceiling. When I cut short my reservation the next morning (and checked-out 3 days early) they still charged me for the one-night stay. They shouldn't rent rooms that have such a huge, obvious problem like that - mold makes a lot of people sick - more importantly it damages the entire brand. There was NO WAY that they didn't know "that" was there (before they rented the room to me).More</t>
   </si>
   <si>
+    <t>Dale D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r166962194-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1965,9 @@
     <t>We did not stay here.  They gave our room away and we ended up at another hotel.  Due to the lack of communication about check in policies the motel was nice enough to refund our money.  We will not be returning to this location ever again.</t>
   </si>
   <si>
+    <t>Virginia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r163275330-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1710,6 +1986,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Diana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r162410613-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +2004,9 @@
     <t>It was a nice room , but it just had a musty smell to it , I would put a Scentsy Wickless Candles in there. And I sale them. Just call me. thank you.</t>
   </si>
   <si>
+    <t>Chrissie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r160786589-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +2025,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>846Bruno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r149216097-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +2046,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Cerilda A A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r147695696-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +2070,9 @@
     <t>My 2 kids and I stayed this past weekend on 12/15/12-12/16/12...omg it was the worst place ever. When we got there the rooms looked decent, but at night when we were about to go to bed , as i pull off the blankets Omg...cockroaches and their babies...not 1 or even 2 ,,,im talking about more then 20,,it was disgusting ..i called the front desk and they didnt even care ,, they said they didnt have any other rooms and there was nothing much they can do about it, due to manager was not working at that time...the worst night ever, i didnt sleep all night, i was taking care of my kids , making sure they didnt have any cockroaches on them during the night. next morning , i told the office manager and she just said , Oh im so sorry , and still charged me in full and bad customer service...I Dont recommend it at allMore</t>
   </si>
   <si>
+    <t>Tashia E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r144344277-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1803,6 +2094,9 @@
     <t>The first room we got on the first night had a jacuzzi for $30 more. We took it so we can have a relaxation but the room was hideuos and old school look. I found ants all over the tile and the knob for the jacuzzi fell off so the water ran and scared me cause I couldnt stop it. Thank fully my husband was able to fix it. The second night the room was ok. It was much better than the first room. It did the job we went for a Dallas Cowboys game and it was very close. So we were very please with that. Overall it was ok it did the job.More</t>
   </si>
   <si>
+    <t>JOHNNY47Montgomery</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r142508983-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1818,6 +2112,9 @@
     <t>All was good price was ok we would use you again and we would tell people about your good service. Thank you!</t>
   </si>
   <si>
+    <t>tripadv2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r132299141-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2133,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Ernestine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r126205448-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2151,9 @@
     <t xml:space="preserve">This was a good hotel and clean, there was one thing I had a non smoking room,the restroom in my room did smell like smoke I did report it to the office and they told me the other side was a smoking unit and it was coming through the vent. The manager was very nice and offered me another room. The breakfast was ok could have been better. Over all a good place to stay and great location. </t>
   </si>
   <si>
+    <t>CBecker1976</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r112011174-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1870,6 +2173,9 @@
   </si>
   <si>
     <t>My husband and I stayed for three nights in June. The room was very clean and the staff was wonderful. The bed was comfortable and we slept very well. Maintenance was something else.  The bathroom tiles had cracks and the light flickered on and off. The night next to the bathroom also didnt work. A lamp in the room didnt work and was very wobbly. The WIFi didnt work at all. Definitly think there was some electrical issues going on this room. The pool was gross. It had a film and there was a lot of small debris in it. Even though there were some maintenance issues I really liked staying there because of the staff. Customer Service was Excellent!!!More</t>
+  </si>
+  <si>
+    <t>CConboy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r109861670-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
@@ -1901,6 +2207,9 @@
 All in all,...My husband and I were a little unsure about renting a room here, just because the price was so low ($67) but were just in town for one night to see a concert at the Verizon Theatre so we thought we'd try it - I'm glad we did! The room was very spacious and immaculately clean. I inspect everything when I get a hotel room and there was no dirt anywhere! There was a small flat screen HDTV in the room, a refrigerator, microwave, a writing desk and a small living area with a coffee table and fold out sofa on the side of the room away from the bed. We did not have a reservation, we just walked in and the very friendly woman at the front desk had us in our room in literally five minutes. The room was comparable to what we've paid $150 a night for in other places. If this is the Super 8 standard, we're going to be staying more often! The continental breakfast was good - hot coffee, cold juice and milk, cereal, danishes, bagels, and make your own Texas shaped waffles! The hotel was right around the corner from the Texas Roadhouse, which was also a very good experience for us, and just a block or so away from a cinema 10. Easy access back to the highway, but far enough away we didn't have to worry about traffic. All in all, we were more than satisfied, but the bed was not very comfortable. Both my husband and I had a hard time falling and staying asleep. The only other thing I can think of is that the handles on two of the drawers were broken off, and the caulking on the bath tub was a little worn out. But none of that detracted from the fact that I really liked this hotel!More</t>
   </si>
   <si>
+    <t>magrigg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r91043833-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1919,6 +2228,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>pjslaperueb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r66054340-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1937,6 +2249,9 @@
     <t>May 2010</t>
   </si>
   <si>
+    <t>Net-Traveller72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r22318234-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1955,6 +2270,9 @@
     <t>November 2008</t>
   </si>
   <si>
+    <t>mikey107</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r19900908-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2292,9 @@
   </si>
   <si>
     <t>I had went to the super 8 motel 1st thing had encountered was a drunk man who told us not to go to the bar because you will get beat up like he did.I had turned on the shower and black murky water had sprayed down it looked like something from a scary movie.Then I had went to the pool to swim and as I was swimming a rat swam over to me and scratched at my arm so I looked over to see what it was and i jumped out of the pool as soon as I saw it.Anyone going to grand prairie I strongly advise you not to go to the Super 8 Motel.More</t>
+  </si>
+  <si>
+    <t>sdisme</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55922-d107019-r5528048-Super_8_Grand_Prairie_Southwest-Grand_Prairie_Texas.html</t>
@@ -2493,43 +2814,47 @@
       <c r="A2" t="n">
         <v>34037</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178875</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2549,50 +2874,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34037</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178876</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2616,50 +2945,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34037</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178877</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2683,50 +3016,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34037</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178878</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2750,50 +3087,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34037</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178879</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2817,35 +3158,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34037</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178880</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2853,10 +3198,10 @@
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2877,51 +3222,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34037</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
         <v>81</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2945,50 +3291,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34037</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178881</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -3012,50 +3362,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34037</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178882</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -3079,50 +3433,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34037</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178883</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -3146,50 +3504,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34037</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178884</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3213,50 +3575,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34037</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178885</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3280,50 +3646,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34037</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178886</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -3347,50 +3717,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34037</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178887</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3410,50 +3784,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34037</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>18545</v>
+      </c>
+      <c r="C16" t="s">
+        <v>139</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="O16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3477,50 +3855,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34037</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>11315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3544,50 +3926,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34037</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>86820</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3611,50 +3997,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34037</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178888</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -3678,50 +4068,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34037</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178889</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3745,50 +4139,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34037</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178890</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3812,50 +4210,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34037</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J22" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -3879,35 +4281,39 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34037</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178891</v>
+      </c>
+      <c r="C23" t="s">
+        <v>184</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3915,10 +4321,10 @@
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3939,51 +4345,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>34037</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>178892</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4007,35 +4414,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>34037</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>22017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -4043,10 +4454,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4067,51 +4478,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>34037</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178893</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4125,50 +4537,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>34037</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178894</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4192,50 +4608,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>34037</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>26550</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4259,50 +4679,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>34037</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178895</v>
+      </c>
+      <c r="C29" t="s">
+        <v>217</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -4326,50 +4750,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>34037</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178896</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4393,50 +4821,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>34037</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178897</v>
+      </c>
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -4460,50 +4892,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>34037</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178898</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K32" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4527,50 +4963,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>34037</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>20707</v>
+      </c>
+      <c r="C33" t="s">
+        <v>245</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="J33" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="O33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4594,50 +5034,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>34037</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178899</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="J34" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4661,50 +5105,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>34037</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178900</v>
+      </c>
+      <c r="C35" t="s">
+        <v>258</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="J35" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="K35" t="s">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4728,50 +5176,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>34037</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178901</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4795,50 +5247,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>34037</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>72175</v>
+      </c>
+      <c r="C37" t="s">
+        <v>273</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="J37" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="K37" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4852,50 +5308,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>34037</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>178902</v>
+      </c>
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4919,50 +5379,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34037</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>14308</v>
+      </c>
+      <c r="C39" t="s">
+        <v>287</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4976,50 +5440,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>34037</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178903</v>
+      </c>
+      <c r="C40" t="s">
+        <v>295</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="J40" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5043,50 +5511,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>34037</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>178904</v>
+      </c>
+      <c r="C41" t="s">
+        <v>301</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="J41" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="K41" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="L41" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5100,50 +5572,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>34037</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178905</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="J42" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="K42" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="L42" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5167,35 +5643,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>34037</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178906</v>
+      </c>
+      <c r="C43" t="s">
+        <v>313</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="J43" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -5203,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5227,51 +5707,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>34037</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>42163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="J44" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="K44" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="L44" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -5295,50 +5776,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>34037</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178907</v>
+      </c>
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="J45" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5362,35 +5847,39 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>34037</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>43971</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
@@ -5398,10 +5887,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="O46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5422,36 +5911,37 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>34037</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178908</v>
+      </c>
+      <c r="C47" t="s">
+        <v>334</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -5459,10 +5949,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5483,51 +5973,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>34037</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>178909</v>
+      </c>
+      <c r="C48" t="s">
+        <v>339</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="J48" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="K48" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5551,50 +6042,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>34037</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178910</v>
+      </c>
+      <c r="C49" t="s">
+        <v>345</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="J49" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5614,50 +6109,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>34037</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178911</v>
+      </c>
+      <c r="C50" t="s">
+        <v>352</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="J50" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="K50" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="L50" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5679,50 +6178,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>34037</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>178912</v>
+      </c>
+      <c r="C51" t="s">
+        <v>359</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="J51" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="K51" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="O51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5746,50 +6249,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>34037</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178913</v>
+      </c>
+      <c r="C52" t="s">
+        <v>365</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="J52" t="s">
-        <v>319</v>
+        <v>368</v>
       </c>
       <c r="K52" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5813,50 +6320,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>321</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>34037</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>3031</v>
+      </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="J53" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="K53" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5874,50 +6385,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>34037</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178914</v>
+      </c>
+      <c r="C54" t="s">
+        <v>378</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="J54" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="L54" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5941,50 +6456,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>34037</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>178915</v>
+      </c>
+      <c r="C55" t="s">
+        <v>386</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="K55" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6008,50 +6527,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>34037</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178916</v>
+      </c>
+      <c r="C56" t="s">
+        <v>392</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>340</v>
+        <v>393</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="J56" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K56" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6073,50 +6596,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>34037</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178917</v>
+      </c>
+      <c r="C57" t="s">
+        <v>398</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="J57" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="K57" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6140,50 +6667,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>34037</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>27060</v>
+      </c>
+      <c r="C58" t="s">
+        <v>403</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="J58" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
       <c r="K58" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="O58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
         <v>2</v>
@@ -6207,50 +6738,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>34037</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178918</v>
+      </c>
+      <c r="C59" t="s">
+        <v>409</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="J59" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="K59" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="O59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6274,50 +6809,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>34037</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>178919</v>
+      </c>
+      <c r="C60" t="s">
+        <v>416</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="J60" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="K60" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="L60" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -6341,50 +6880,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>34037</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178920</v>
+      </c>
+      <c r="C61" t="s">
+        <v>422</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="J61" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="K61" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6408,50 +6951,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>34037</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178921</v>
+      </c>
+      <c r="C62" t="s">
+        <v>429</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>372</v>
+        <v>431</v>
       </c>
       <c r="J62" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="K62" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="O62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6473,50 +7020,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>34037</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>178922</v>
+      </c>
+      <c r="C63" t="s">
+        <v>435</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="J63" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="K63" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="L63" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="O63" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -6540,50 +7091,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>34037</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>178923</v>
+      </c>
+      <c r="C64" t="s">
+        <v>441</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="J64" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="K64" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="L64" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O64" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6607,50 +7162,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>34037</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>178924</v>
+      </c>
+      <c r="C65" t="s">
+        <v>448</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>387</v>
+        <v>449</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>388</v>
+        <v>450</v>
       </c>
       <c r="J65" t="s">
-        <v>389</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="L65" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6668,50 +7227,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>34037</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178925</v>
+      </c>
+      <c r="C66" t="s">
+        <v>455</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="J66" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="K66" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="L66" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O66" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6735,50 +7298,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>34037</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>178926</v>
+      </c>
+      <c r="C67" t="s">
+        <v>462</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="J67" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="O67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
         <v>2</v>
@@ -6802,50 +7369,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>34037</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>30135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>468</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="J68" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="K68" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="O68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6869,50 +7440,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>34037</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>9633</v>
+      </c>
+      <c r="C69" t="s">
+        <v>475</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="J69" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="K69" t="s">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="L69" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="O69" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6936,50 +7511,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>414</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>34037</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>178927</v>
+      </c>
+      <c r="C70" t="s">
+        <v>482</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="J70" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="K70" t="s">
         <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="O70" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7003,50 +7582,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>34037</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178928</v>
+      </c>
+      <c r="C71" t="s">
+        <v>488</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="J71" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="L71" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7066,50 +7649,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>34037</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>217</v>
+      </c>
+      <c r="C72" t="s">
+        <v>496</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="J72" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="K72" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="L72" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="O72" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7133,50 +7720,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>34037</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>25607</v>
+      </c>
+      <c r="C73" t="s">
+        <v>502</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="J73" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="K73" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="L73" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="O73" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7196,50 +7787,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>34037</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>178929</v>
+      </c>
+      <c r="C74" t="s">
+        <v>510</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="J74" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="K74" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="L74" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="O74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7263,50 +7858,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>34037</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>77559</v>
+      </c>
+      <c r="C75" t="s">
+        <v>517</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="J75" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="K75" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="L75" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="O75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7330,50 +7929,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>34037</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178930</v>
+      </c>
+      <c r="C76" t="s">
+        <v>523</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>524</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="K76" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
       <c r="L76" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="O76" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7397,50 +8000,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>454</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>34037</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>4274</v>
+      </c>
+      <c r="C77" t="s">
+        <v>528</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>455</v>
+        <v>529</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="J77" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="K77" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="L77" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="O77" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7464,50 +8071,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>34037</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>1151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>535</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="J78" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="K78" t="s">
         <v>12</v>
       </c>
       <c r="L78" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="O78" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7531,50 +8142,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>34037</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>541</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="J79" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="K79" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="L79" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="O79" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7598,50 +8213,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>34037</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C80" t="s">
+        <v>548</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>549</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="J80" t="s">
-        <v>474</v>
+        <v>551</v>
       </c>
       <c r="K80" t="s">
-        <v>475</v>
+        <v>552</v>
       </c>
       <c r="L80" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="O80" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P80" t="n">
         <v>3</v>
@@ -7665,50 +8284,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>476</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>34037</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>178931</v>
+      </c>
+      <c r="C81" t="s">
+        <v>554</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="J81" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="K81" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="L81" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="O81" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7732,50 +8355,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>34037</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>14326</v>
+      </c>
+      <c r="C82" t="s">
+        <v>560</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="J82" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="K82" t="s">
-        <v>485</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>487</v>
+        <v>566</v>
       </c>
       <c r="O82" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -7799,50 +8426,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>34037</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>72283</v>
+      </c>
+      <c r="C83" t="s">
+        <v>567</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
       <c r="J83" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
       <c r="K83" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
       <c r="L83" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="O83" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P83" t="n">
         <v>3</v>
@@ -7866,50 +8497,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>34037</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>41264</v>
+      </c>
+      <c r="C84" t="s">
+        <v>575</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>495</v>
+        <v>576</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>496</v>
+        <v>577</v>
       </c>
       <c r="J84" t="s">
-        <v>497</v>
+        <v>578</v>
       </c>
       <c r="K84" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
       <c r="L84" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="O84" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P84" t="n">
         <v>1</v>
@@ -7933,50 +8568,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>499</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>34037</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>178932</v>
+      </c>
+      <c r="C85" t="s">
+        <v>581</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>500</v>
+        <v>582</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>501</v>
+        <v>583</v>
       </c>
       <c r="J85" t="s">
-        <v>502</v>
+        <v>584</v>
       </c>
       <c r="K85" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="L85" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="O85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8000,50 +8639,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>34037</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>13828</v>
+      </c>
+      <c r="C86" t="s">
+        <v>588</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>506</v>
+        <v>589</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>507</v>
+        <v>590</v>
       </c>
       <c r="J86" t="s">
-        <v>508</v>
+        <v>591</v>
       </c>
       <c r="K86" t="s">
-        <v>509</v>
+        <v>592</v>
       </c>
       <c r="L86" t="s">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="O86" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8067,50 +8710,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>510</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>34037</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>178933</v>
+      </c>
+      <c r="C87" t="s">
+        <v>594</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="J87" t="s">
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="K87" t="s">
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="L87" t="s">
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="O87" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P87" t="n">
         <v>2</v>
@@ -8134,50 +8781,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>517</v>
+        <v>601</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>34037</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>178934</v>
+      </c>
+      <c r="C88" t="s">
+        <v>602</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>518</v>
+        <v>603</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="J88" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="K88" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="L88" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="O88" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8201,50 +8852,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>34037</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>178935</v>
+      </c>
+      <c r="C89" t="s">
+        <v>608</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>523</v>
+        <v>609</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>524</v>
+        <v>610</v>
       </c>
       <c r="J89" t="s">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="K89" t="s">
-        <v>526</v>
+        <v>612</v>
       </c>
       <c r="L89" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="O89" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8268,50 +8923,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>527</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>34037</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>28892</v>
+      </c>
+      <c r="C90" t="s">
+        <v>615</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>530</v>
+        <v>617</v>
       </c>
       <c r="J90" t="s">
-        <v>531</v>
+        <v>618</v>
       </c>
       <c r="K90" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="L90" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="O90" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8335,50 +8994,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>533</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>34037</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>38416</v>
+      </c>
+      <c r="C91" t="s">
+        <v>621</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>534</v>
+        <v>622</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>535</v>
+        <v>623</v>
       </c>
       <c r="J91" t="s">
-        <v>536</v>
+        <v>624</v>
       </c>
       <c r="K91" t="s">
-        <v>537</v>
+        <v>625</v>
       </c>
       <c r="L91" t="s">
-        <v>538</v>
+        <v>626</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>528</v>
+        <v>614</v>
       </c>
       <c r="O91" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -8400,50 +9063,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>538</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>34037</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178936</v>
+      </c>
+      <c r="C92" t="s">
+        <v>627</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>539</v>
+        <v>628</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>540</v>
+        <v>629</v>
       </c>
       <c r="J92" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="K92" t="s">
-        <v>542</v>
+        <v>631</v>
       </c>
       <c r="L92" t="s">
-        <v>543</v>
+        <v>632</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="O92" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8467,50 +9134,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>543</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>34037</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C93" t="s">
+        <v>634</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="J93" t="s">
-        <v>547</v>
+        <v>637</v>
       </c>
       <c r="K93" t="s">
-        <v>548</v>
+        <v>638</v>
       </c>
       <c r="L93" t="s">
-        <v>549</v>
+        <v>639</v>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="s">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="O93" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P93" t="n">
         <v>1</v>
@@ -8534,50 +9205,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>550</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>34037</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>51483</v>
+      </c>
+      <c r="C94" t="s">
+        <v>641</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>551</v>
+        <v>642</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>552</v>
+        <v>643</v>
       </c>
       <c r="J94" t="s">
-        <v>553</v>
+        <v>644</v>
       </c>
       <c r="K94" t="s">
-        <v>554</v>
+        <v>645</v>
       </c>
       <c r="L94" t="s">
-        <v>555</v>
+        <v>646</v>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="s">
-        <v>544</v>
+        <v>633</v>
       </c>
       <c r="O94" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P94" t="n">
         <v>1</v>
@@ -8601,50 +9276,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>555</v>
+        <v>646</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>34037</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>90228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>647</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
       <c r="J95" t="s">
-        <v>558</v>
+        <v>650</v>
       </c>
       <c r="K95" t="s">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="L95" t="s">
-        <v>560</v>
+        <v>652</v>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="O95" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8668,50 +9347,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>560</v>
+        <v>652</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>34037</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>29574</v>
+      </c>
+      <c r="C96" t="s">
+        <v>654</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>562</v>
+        <v>655</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>563</v>
+        <v>656</v>
       </c>
       <c r="J96" t="s">
-        <v>564</v>
+        <v>657</v>
       </c>
       <c r="K96" t="s">
-        <v>565</v>
+        <v>658</v>
       </c>
       <c r="L96" t="s">
-        <v>566</v>
+        <v>659</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="O96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8735,50 +9418,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>566</v>
+        <v>659</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>34037</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>178937</v>
+      </c>
+      <c r="C97" t="s">
+        <v>660</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>567</v>
+        <v>661</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>568</v>
+        <v>662</v>
       </c>
       <c r="J97" t="s">
-        <v>569</v>
+        <v>663</v>
       </c>
       <c r="K97" t="s">
-        <v>570</v>
+        <v>664</v>
       </c>
       <c r="L97" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>572</v>
+        <v>666</v>
       </c>
       <c r="O97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8802,50 +9489,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>571</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>34037</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>178938</v>
+      </c>
+      <c r="C98" t="s">
+        <v>667</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>574</v>
+        <v>669</v>
       </c>
       <c r="J98" t="s">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="K98" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="L98" t="s">
-        <v>577</v>
+        <v>672</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>578</v>
+        <v>673</v>
       </c>
       <c r="O98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -8869,50 +9560,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>577</v>
+        <v>672</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>34037</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>178939</v>
+      </c>
+      <c r="C99" t="s">
+        <v>674</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>579</v>
+        <v>675</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>580</v>
+        <v>676</v>
       </c>
       <c r="J99" t="s">
-        <v>581</v>
+        <v>677</v>
       </c>
       <c r="K99" t="s">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="L99" t="s">
-        <v>583</v>
+        <v>679</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>584</v>
+        <v>680</v>
       </c>
       <c r="O99" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P99" t="n">
         <v>1</v>
@@ -8936,50 +9631,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>585</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>34037</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>178940</v>
+      </c>
+      <c r="C100" t="s">
+        <v>682</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="J100" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="K100" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="L100" t="s">
-        <v>590</v>
+        <v>687</v>
       </c>
       <c r="M100" t="n">
         <v>3</v>
       </c>
       <c r="N100" t="s">
-        <v>591</v>
+        <v>688</v>
       </c>
       <c r="O100" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9003,50 +9702,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>592</v>
+        <v>689</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>34037</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>178941</v>
+      </c>
+      <c r="C101" t="s">
+        <v>690</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>593</v>
+        <v>691</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>594</v>
+        <v>692</v>
       </c>
       <c r="J101" t="s">
-        <v>595</v>
+        <v>693</v>
       </c>
       <c r="K101" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
       <c r="L101" t="s">
-        <v>597</v>
+        <v>695</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>591</v>
+        <v>688</v>
       </c>
       <c r="O101" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P101" t="n">
         <v>2</v>
@@ -9070,50 +9773,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>597</v>
+        <v>695</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>34037</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>178942</v>
+      </c>
+      <c r="C102" t="s">
+        <v>696</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>598</v>
+        <v>697</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="J102" t="s">
-        <v>600</v>
+        <v>699</v>
       </c>
       <c r="K102" t="s">
-        <v>601</v>
+        <v>700</v>
       </c>
       <c r="L102" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>603</v>
+        <v>702</v>
       </c>
       <c r="O102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9137,41 +9844,45 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>602</v>
+        <v>701</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>34037</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>178943</v>
+      </c>
+      <c r="C103" t="s">
+        <v>703</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>604</v>
+        <v>704</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>605</v>
+        <v>705</v>
       </c>
       <c r="J103" t="s">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="K103" t="s">
-        <v>607</v>
+        <v>707</v>
       </c>
       <c r="L103" t="s">
-        <v>608</v>
+        <v>708</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
@@ -9190,50 +9901,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>608</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>34037</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>178944</v>
+      </c>
+      <c r="C104" t="s">
+        <v>709</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>609</v>
+        <v>710</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>610</v>
+        <v>711</v>
       </c>
       <c r="J104" t="s">
-        <v>611</v>
+        <v>712</v>
       </c>
       <c r="K104" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
       <c r="L104" t="s">
-        <v>613</v>
+        <v>714</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>614</v>
+        <v>715</v>
       </c>
       <c r="O104" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9253,50 +9968,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>615</v>
+        <v>716</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>34037</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>178945</v>
+      </c>
+      <c r="C105" t="s">
+        <v>717</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>616</v>
+        <v>718</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>617</v>
+        <v>719</v>
       </c>
       <c r="J105" t="s">
-        <v>618</v>
+        <v>720</v>
       </c>
       <c r="K105" t="s">
-        <v>619</v>
+        <v>721</v>
       </c>
       <c r="L105" t="s">
-        <v>620</v>
+        <v>722</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>621</v>
+        <v>723</v>
       </c>
       <c r="O105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9320,50 +10039,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>622</v>
+        <v>724</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>34037</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>178946</v>
+      </c>
+      <c r="C106" t="s">
+        <v>725</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>623</v>
+        <v>726</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>624</v>
+        <v>727</v>
       </c>
       <c r="J106" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="K106" t="s">
-        <v>626</v>
+        <v>729</v>
       </c>
       <c r="L106" t="s">
-        <v>627</v>
+        <v>730</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>628</v>
+        <v>731</v>
       </c>
       <c r="O106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P106" t="s"/>
       <c r="Q106" t="s"/>
@@ -9377,50 +10100,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>627</v>
+        <v>730</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>34037</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>178947</v>
+      </c>
+      <c r="C107" t="s">
+        <v>732</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>629</v>
+        <v>733</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>630</v>
+        <v>734</v>
       </c>
       <c r="J107" t="s">
-        <v>631</v>
+        <v>735</v>
       </c>
       <c r="K107" t="s">
-        <v>632</v>
+        <v>736</v>
       </c>
       <c r="L107" t="s">
-        <v>633</v>
+        <v>737</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="O107" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9444,50 +10171,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>633</v>
+        <v>737</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>34037</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>178948</v>
+      </c>
+      <c r="C108" t="s">
+        <v>739</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>635</v>
+        <v>740</v>
       </c>
       <c r="G108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I108" t="s">
-        <v>636</v>
+        <v>741</v>
       </c>
       <c r="J108" t="s">
-        <v>637</v>
+        <v>742</v>
       </c>
       <c r="K108" t="s">
-        <v>638</v>
+        <v>743</v>
       </c>
       <c r="L108" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>640</v>
+        <v>745</v>
       </c>
       <c r="O108" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9511,50 +10242,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>34037</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>178949</v>
+      </c>
+      <c r="C109" t="s">
+        <v>746</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I109" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="J109" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="K109" t="s">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="L109" t="s">
-        <v>645</v>
+        <v>751</v>
       </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
       <c r="N109" t="s">
-        <v>646</v>
+        <v>752</v>
       </c>
       <c r="O109" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9578,41 +10313,45 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>647</v>
+        <v>753</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>34037</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>178950</v>
+      </c>
+      <c r="C110" t="s">
+        <v>754</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>648</v>
+        <v>755</v>
       </c>
       <c r="G110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I110" t="s">
-        <v>649</v>
+        <v>756</v>
       </c>
       <c r="J110" t="s">
-        <v>650</v>
+        <v>757</v>
       </c>
       <c r="K110" t="s">
-        <v>651</v>
+        <v>758</v>
       </c>
       <c r="L110" t="s">
-        <v>652</v>
+        <v>759</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
@@ -9631,7 +10370,7 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>652</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
